--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DailyPlan" sheetId="1" r:id="rId1"/>
+    <sheet name="catelog" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Serial</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +46,54 @@
   </si>
   <si>
     <t>Algorithm(1h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LearnName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式同步服务中间件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系型数据库访问中间件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式服务调用中间件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式消息服务中间件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式跟踪服务中间件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOSQL数据库（键值对、列、文档）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewSql数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ilog规则引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control-M批处理引擎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -52,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +123,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -115,10 +172,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -126,9 +184,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -432,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -457,7 +520,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -483,7 +546,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -757,6 +820,181 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D1" location="catelog!A1" display="Read(1h)"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="DailyPlan" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Serial</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,18 +25,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JavaApi(0.5h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Read(1h)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CodeRead(1h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Run(1h)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +86,22 @@
   </si>
   <si>
     <t>control-M批处理引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code(1h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署与负载均衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English(0.5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +215,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -249,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,7 +292,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,17 +503,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -518,22 +526,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -543,13 +551,21 @@
       <c r="B2" s="4">
         <v>44224</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
       <c r="E2" s="1">
         <v>1.5</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -559,11 +575,21 @@
       <c r="B3" s="4">
         <v>44225</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -573,11 +599,21 @@
       <c r="B4" s="4">
         <v>44226</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -587,11 +623,21 @@
       <c r="B5" s="4">
         <v>44227</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -601,11 +647,21 @@
       <c r="B6" s="4">
         <v>44228</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -615,9 +671,13 @@
       <c r="B7" s="4">
         <v>44229</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -629,7 +689,7 @@
       <c r="B8" s="4">
         <v>44230</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -643,7 +703,7 @@
       <c r="B9" s="4">
         <v>44231</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -657,7 +717,7 @@
       <c r="B10" s="4">
         <v>44232</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -671,7 +731,7 @@
       <c r="B11" s="4">
         <v>44233</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -685,7 +745,7 @@
       <c r="B12" s="4">
         <v>44234</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -699,7 +759,7 @@
       <c r="B13" s="4">
         <v>44235</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -713,7 +773,7 @@
       <c r="B14" s="4">
         <v>44236</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -727,7 +787,7 @@
       <c r="B15" s="4">
         <v>44237</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -741,7 +801,7 @@
       <c r="B16" s="4">
         <v>44238</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -755,7 +815,7 @@
       <c r="B17" s="4">
         <v>44239</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -769,7 +829,7 @@
       <c r="B18" s="4">
         <v>44240</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -783,7 +843,7 @@
       <c r="B19" s="4">
         <v>44241</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -797,7 +857,7 @@
       <c r="B20" s="4">
         <v>44242</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -811,7 +871,7 @@
       <c r="B21" s="4">
         <v>44243</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -824,6 +884,7 @@
     <hyperlink ref="D1" location="catelog!A1" display="Read(1h)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -831,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -847,16 +908,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -864,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -875,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -886,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -897,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -908,7 +969,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -919,7 +980,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -930,7 +991,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -941,7 +1002,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -952,22 +1013,30 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -504,7 +504,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -671,15 +671,21 @@
       <c r="B7" s="4">
         <v>44229</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>1.5</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -689,11 +695,21 @@
       <c r="B8" s="4">
         <v>44230</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -703,11 +719,21 @@
       <c r="B9" s="4">
         <v>44231</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -717,7 +743,7 @@
       <c r="B10" s="4">
         <v>44232</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -731,7 +757,7 @@
       <c r="B11" s="4">
         <v>44233</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -745,7 +771,7 @@
       <c r="B12" s="4">
         <v>44234</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -759,7 +785,7 @@
       <c r="B13" s="4">
         <v>44235</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -773,7 +799,7 @@
       <c r="B14" s="4">
         <v>44236</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -787,7 +813,7 @@
       <c r="B15" s="4">
         <v>44237</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -801,7 +827,7 @@
       <c r="B16" s="4">
         <v>44238</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -815,7 +841,7 @@
       <c r="B17" s="4">
         <v>44239</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -829,7 +855,7 @@
       <c r="B18" s="4">
         <v>44240</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -843,7 +869,7 @@
       <c r="B19" s="4">
         <v>44241</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -857,7 +883,7 @@
       <c r="B20" s="4">
         <v>44242</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -871,7 +897,7 @@
       <c r="B21" s="4">
         <v>44243</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Serial</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>English(0.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase(0.5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -515,10 +519,11 @@
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -538,13 +543,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -563,12 +571,13 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -587,12 +596,13 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -611,12 +621,13 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -635,12 +646,13 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -659,12 +671,13 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -683,12 +696,13 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -707,12 +721,13 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -731,12 +746,13 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -749,8 +765,9 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -763,8 +780,9 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -777,8 +795,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -791,8 +810,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -805,8 +825,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -819,8 +840,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -833,8 +855,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -847,8 +870,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -861,8 +885,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -875,8 +900,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -889,8 +915,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -903,6 +930,37 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>44244</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>44245</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -955,7 +955,9 @@
         <v>44245</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1">
+        <v>0.5</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -963,6 +963,2243 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>44246</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>44247</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44248</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>44249</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>44250</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>44251</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>44252</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>44253</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44254</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>44255</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>44256</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>44257</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>44258</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>44259</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>44260</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>44261</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>44262</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>44263</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>44264</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>44265</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <v>44266</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <v>44267</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <v>44268</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>44269</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
+        <v>44270</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>44271</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <v>44272</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>44273</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
+        <v>44274</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>44275</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <v>44276</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <v>44277</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <v>44278</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <v>44279</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4">
+        <v>44280</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4">
+        <v>44281</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4">
+        <v>44282</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4">
+        <v>44283</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4">
+        <v>44284</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4">
+        <v>44285</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4">
+        <v>44286</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4">
+        <v>44288</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4">
+        <v>44289</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4">
+        <v>44290</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4">
+        <v>44291</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4">
+        <v>44292</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4">
+        <v>44293</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4">
+        <v>44294</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4">
+        <v>44295</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4">
+        <v>44296</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4">
+        <v>44297</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4">
+        <v>44298</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4">
+        <v>44299</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" s="3">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4">
+        <v>44300</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4">
+        <v>44301</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4">
+        <v>44302</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="3">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4">
+        <v>44303</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4">
+        <v>44304</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4">
+        <v>44305</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4">
+        <v>44306</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4">
+        <v>44307</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4">
+        <v>44308</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="3">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4">
+        <v>44309</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" s="3">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4">
+        <v>44310</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4">
+        <v>44311</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="3">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4">
+        <v>44312</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="3">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4">
+        <v>44313</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4">
+        <v>44314</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4">
+        <v>44315</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4">
+        <v>44316</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4">
+        <v>44317</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4">
+        <v>44318</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4">
+        <v>44319</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4">
+        <v>44320</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4">
+        <v>44321</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4">
+        <v>44322</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4">
+        <v>44323</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4">
+        <v>44324</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4">
+        <v>44325</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4">
+        <v>44326</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4">
+        <v>44327</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4">
+        <v>44328</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4">
+        <v>44329</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4">
+        <v>44330</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4">
+        <v>44331</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4">
+        <v>44332</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A111" s="3">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4">
+        <v>44333</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112" s="3">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4">
+        <v>44334</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113" s="3">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4">
+        <v>44335</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A114" s="3">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4">
+        <v>44336</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A115" s="3">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4">
+        <v>44337</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4">
+        <v>44338</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A117" s="3">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4">
+        <v>44339</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A118" s="3">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4">
+        <v>44340</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A119" s="3">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4">
+        <v>44341</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A120" s="3">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4">
+        <v>44342</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A121" s="3">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4">
+        <v>44343</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4">
+        <v>44344</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4">
+        <v>44345</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4">
+        <v>44346</v>
+      </c>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4">
+        <v>44347</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4">
+        <v>44348</v>
+      </c>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4">
+        <v>44349</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4">
+        <v>44350</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4">
+        <v>44351</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4">
+        <v>44352</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4">
+        <v>44353</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4">
+        <v>44354</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4">
+        <v>44355</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4">
+        <v>44356</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4">
+        <v>44357</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4">
+        <v>44358</v>
+      </c>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4">
+        <v>44359</v>
+      </c>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4">
+        <v>44360</v>
+      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4">
+        <v>44361</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4">
+        <v>44362</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4">
+        <v>44363</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" s="4">
+        <v>44364</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+      <c r="B143" s="4">
+        <v>44365</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" s="4">
+        <v>44366</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A145" s="3">
+        <v>144</v>
+      </c>
+      <c r="B145" s="4">
+        <v>44367</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A146" s="3">
+        <v>145</v>
+      </c>
+      <c r="B146" s="4">
+        <v>44368</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A147" s="3">
+        <v>146</v>
+      </c>
+      <c r="B147" s="4">
+        <v>44369</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+      <c r="B148" s="4">
+        <v>44370</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A149" s="3">
+        <v>148</v>
+      </c>
+      <c r="B149" s="4">
+        <v>44371</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" s="4">
+        <v>44372</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A151" s="3">
+        <v>150</v>
+      </c>
+      <c r="B151" s="4">
+        <v>44373</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" s="4">
+        <v>44374</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A153" s="3">
+        <v>152</v>
+      </c>
+      <c r="B153" s="4">
+        <v>44375</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" s="4">
+        <v>44376</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A155" s="3">
+        <v>154</v>
+      </c>
+      <c r="B155" s="4">
+        <v>44377</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+      <c r="B156" s="4">
+        <v>44378</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A157" s="3">
+        <v>156</v>
+      </c>
+      <c r="B157" s="4">
+        <v>44379</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A158" s="3">
+        <v>157</v>
+      </c>
+      <c r="B158" s="4">
+        <v>44380</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A159" s="3">
+        <v>158</v>
+      </c>
+      <c r="B159" s="4">
+        <v>44381</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A160" s="3">
+        <v>159</v>
+      </c>
+      <c r="B160" s="4">
+        <v>44382</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A161" s="3">
+        <v>160</v>
+      </c>
+      <c r="B161" s="4">
+        <v>44383</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A162" s="3">
+        <v>161</v>
+      </c>
+      <c r="B162" s="4">
+        <v>44384</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A163" s="3">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4">
+        <v>44385</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A164" s="3">
+        <v>163</v>
+      </c>
+      <c r="B164" s="4">
+        <v>44386</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A165" s="3">
+        <v>164</v>
+      </c>
+      <c r="B165" s="4">
+        <v>44387</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A166" s="3">
+        <v>165</v>
+      </c>
+      <c r="B166" s="4">
+        <v>44388</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A167" s="3">
+        <v>166</v>
+      </c>
+      <c r="B167" s="4">
+        <v>44389</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A168" s="3">
+        <v>167</v>
+      </c>
+      <c r="B168" s="4">
+        <v>44390</v>
+      </c>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A169" s="3">
+        <v>168</v>
+      </c>
+      <c r="B169" s="4">
+        <v>44391</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A170" s="3">
+        <v>169</v>
+      </c>
+      <c r="B170" s="4">
+        <v>44392</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A171" s="3">
+        <v>170</v>
+      </c>
+      <c r="B171" s="4">
+        <v>44393</v>
+      </c>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A172" s="3">
+        <v>171</v>
+      </c>
+      <c r="B172" s="4">
+        <v>44394</v>
+      </c>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -989,11 +989,15 @@
         <v>44247</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1">
+        <v>0.5</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>1</v>
+      </c>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1020,7 +1024,9 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -188,7 +188,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -200,6 +200,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -508,7 +511,7 @@
   <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1024,8 +1027,8 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1">
-        <v>1</v>
+      <c r="E27" s="7">
+        <v>1.5</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -34,10 +34,6 @@
   </si>
   <si>
     <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Algorithm(1h)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -89,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Code(1h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>部署与负载均衡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,12 +100,20 @@
     <t>DataBase(0.5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CodeRead(1h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeWrite(1h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +145,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -188,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -203,6 +226,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -510,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -521,7 +547,7 @@
     <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -534,19 +560,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
@@ -571,7 +597,7 @@
       <c r="E2" s="1">
         <v>1.5</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="9">
         <v>0</v>
       </c>
       <c r="G2" s="1"/>
@@ -596,7 +622,7 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="9">
         <v>0</v>
       </c>
       <c r="G3" s="1"/>
@@ -621,7 +647,7 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="9">
         <v>0</v>
       </c>
       <c r="G4" s="1"/>
@@ -646,7 +672,7 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="9">
         <v>0</v>
       </c>
       <c r="G5" s="1"/>
@@ -671,7 +697,7 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="9">
         <v>0</v>
       </c>
       <c r="G6" s="1"/>
@@ -696,7 +722,7 @@
       <c r="E7" s="1">
         <v>1.5</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="9">
         <v>0</v>
       </c>
       <c r="G7" s="1"/>
@@ -721,7 +747,7 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="9">
         <v>0</v>
       </c>
       <c r="G8" s="1"/>
@@ -746,7 +772,7 @@
       <c r="E9" s="1">
         <v>0.5</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="9">
         <v>0</v>
       </c>
       <c r="G9" s="1"/>
@@ -765,7 +791,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -780,7 +806,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -795,7 +821,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -810,7 +836,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -825,7 +851,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -840,7 +866,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -855,7 +881,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -870,7 +896,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -885,7 +911,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -900,7 +926,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -915,7 +941,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -930,7 +956,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -945,7 +971,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -962,7 +988,7 @@
         <v>0.5</v>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -979,7 +1005,7 @@
         <v>0.5</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -996,7 +1022,7 @@
         <v>0.5</v>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1">
         <v>1</v>
@@ -1013,7 +1039,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1030,7 +1056,7 @@
       <c r="E27" s="7">
         <v>1.5</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1045,7 +1071,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1060,7 +1086,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1075,7 +1101,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1090,7 +1116,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1105,7 +1131,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1120,7 +1146,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1135,7 +1161,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1150,7 +1176,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1165,7 +1191,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1180,7 +1206,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1195,7 +1221,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1210,7 +1236,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1225,7 +1251,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1240,7 +1266,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -1255,7 +1281,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1270,7 +1296,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1285,7 +1311,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1300,7 +1326,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1315,7 +1341,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="9"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -1330,7 +1356,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -1345,7 +1371,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="9"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -1360,7 +1386,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="9"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -1375,7 +1401,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="9"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -1390,7 +1416,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="F51" s="9"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -1405,7 +1431,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="9"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -1420,7 +1446,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -1435,7 +1461,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="9"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -1450,7 +1476,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="9"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -1465,7 +1491,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="9"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -1480,7 +1506,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -1495,7 +1521,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" s="9"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -1510,7 +1536,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="F59" s="9"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -1525,7 +1551,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="F60" s="9"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -1540,7 +1566,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="9"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -1555,7 +1581,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="F62" s="9"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -1570,7 +1596,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="F63" s="9"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -1585,7 +1611,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="F64" s="9"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -1600,7 +1626,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="F65" s="9"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -1615,7 +1641,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="F66" s="9"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -1630,7 +1656,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="F67" s="9"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -1645,7 +1671,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="9"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -1660,7 +1686,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="F69" s="9"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -1675,7 +1701,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="F70" s="9"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -1690,7 +1716,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="F71" s="9"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -1705,7 +1731,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="F72" s="9"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -1720,7 +1746,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="9"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -1735,7 +1761,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="9"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -1750,7 +1776,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -1765,7 +1791,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="F76" s="9"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -1780,7 +1806,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="9"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -1795,7 +1821,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="F78" s="9"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -1810,7 +1836,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="F79" s="9"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -1825,7 +1851,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="9"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -1840,7 +1866,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="9"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -1855,7 +1881,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
+      <c r="F82" s="9"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -1870,7 +1896,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
+      <c r="F83" s="9"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -1885,7 +1911,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="F84" s="9"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -1900,7 +1926,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="9"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -1915,7 +1941,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="F86" s="9"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -1930,7 +1956,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="F87" s="9"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -1945,7 +1971,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="F88" s="9"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -1960,7 +1986,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="F89" s="9"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -1975,7 +2001,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="F90" s="9"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -1990,7 +2016,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="F91" s="9"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -2005,7 +2031,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="F92" s="9"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -2020,7 +2046,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
+      <c r="F93" s="9"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -2035,7 +2061,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="F94" s="9"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -2050,7 +2076,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="9"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -2065,7 +2091,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="F96" s="9"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -2080,7 +2106,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="F97" s="9"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -2095,7 +2121,7 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="F98" s="9"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -2110,7 +2136,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
+      <c r="F99" s="9"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -2125,7 +2151,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="F100" s="9"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -2140,7 +2166,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="F101" s="9"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -2155,7 +2181,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
+      <c r="F102" s="9"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -2170,7 +2196,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="F103" s="9"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -2185,7 +2211,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+      <c r="F104" s="9"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -2200,7 +2226,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="F105" s="9"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -2215,7 +2241,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="F106" s="9"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -2230,7 +2256,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="F107" s="9"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -2245,7 +2271,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+      <c r="F108" s="9"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -2260,7 +2286,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="F109" s="9"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -2275,7 +2301,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="F110" s="9"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -2290,7 +2316,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="F111" s="9"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -2305,7 +2331,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="F112" s="9"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -2320,7 +2346,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="F113" s="9"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -2335,7 +2361,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="F114" s="9"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -2350,7 +2376,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="F115" s="9"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -2365,7 +2391,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="F116" s="9"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -2380,7 +2406,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="F117" s="9"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -2395,7 +2421,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="F118" s="9"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -2410,7 +2436,7 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="F119" s="9"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -2425,7 +2451,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="F120" s="9"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -2440,7 +2466,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="F121" s="9"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -2455,7 +2481,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+      <c r="F122" s="9"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -2470,7 +2496,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
+      <c r="F123" s="9"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -2485,7 +2511,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="F124" s="9"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -2500,7 +2526,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="F125" s="9"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -2515,7 +2541,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="F126" s="9"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -2530,7 +2556,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="F127" s="9"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -2545,7 +2571,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="F128" s="9"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -2560,7 +2586,7 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="F129" s="9"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -2575,7 +2601,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="F130" s="9"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -2590,7 +2616,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
+      <c r="F131" s="9"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -2605,7 +2631,7 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="F132" s="9"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -2620,7 +2646,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+      <c r="F133" s="9"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -2635,7 +2661,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
+      <c r="F134" s="9"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -2650,7 +2676,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
+      <c r="F135" s="9"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -2665,7 +2691,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+      <c r="F136" s="9"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -2680,7 +2706,7 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="F137" s="9"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -2695,7 +2721,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
+      <c r="F138" s="9"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -2710,7 +2736,7 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="F139" s="9"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -2725,7 +2751,7 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
+      <c r="F140" s="9"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -2740,7 +2766,7 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="F141" s="9"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -2755,7 +2781,7 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="F142" s="9"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -2770,7 +2796,7 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
+      <c r="F143" s="9"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -2785,7 +2811,7 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="F144" s="9"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -2800,7 +2826,7 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="F145" s="9"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -2815,7 +2841,7 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="F146" s="9"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -2830,7 +2856,7 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="F147" s="9"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -2845,7 +2871,7 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="F148" s="9"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -2860,7 +2886,7 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="F149" s="9"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -2875,7 +2901,7 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="F150" s="9"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -2890,7 +2916,7 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="F151" s="9"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -2905,7 +2931,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="F152" s="9"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -2920,7 +2946,7 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="F153" s="9"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -2935,7 +2961,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="F154" s="9"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -2950,7 +2976,7 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="F155" s="9"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -2965,7 +2991,7 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="F156" s="9"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -2980,7 +3006,7 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="F157" s="9"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -2995,7 +3021,7 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="F158" s="9"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -3010,7 +3036,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="F159" s="9"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -3025,7 +3051,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="F160" s="9"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -3040,7 +3066,7 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="F161" s="9"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -3055,7 +3081,7 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="F162" s="9"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -3070,7 +3096,7 @@
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="F163" s="9"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -3085,7 +3111,7 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="F164" s="9"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -3100,7 +3126,7 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+      <c r="F165" s="9"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -3115,7 +3141,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="F166" s="9"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -3130,7 +3156,7 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="F167" s="9"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -3145,7 +3171,7 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="F168" s="9"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -3160,7 +3186,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="F169" s="9"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -3175,7 +3201,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+      <c r="F170" s="9"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -3190,7 +3216,7 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
+      <c r="F171" s="9"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -3205,7 +3231,7 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+      <c r="F172" s="9"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -3240,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -3257,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3268,7 +3294,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3279,7 +3305,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3290,7 +3316,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -3301,7 +3327,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3312,7 +3338,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3323,7 +3349,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3334,7 +3360,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3345,7 +3371,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3356,7 +3382,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -3367,7 +3393,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -10,7 +10,7 @@
     <sheet name="DailyPlan" sheetId="1" r:id="rId1"/>
     <sheet name="catelog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525" iterate="1"/>
 </workbook>
 </file>
 
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +160,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -211,7 +218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -223,12 +230,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -536,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -547,7 +560,7 @@
     <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -568,7 +581,7 @@
       <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -582,574 +595,918 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="11">
         <v>44224</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
         <v>1.5</v>
       </c>
-      <c r="F2" s="9">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1"/>
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
+        <f>SUM(C2:H2)</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="11">
         <v>44225</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="12">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1"/>
+      <c r="F3" s="13">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12">
+        <f t="shared" ref="I3:I33" si="0">SUM(C3:H3)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="11">
         <v>44226</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
+      <c r="C4" s="12">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="11">
         <v>44227</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
+      <c r="C5" s="12">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="11">
         <v>44228</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="12">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="11">
         <v>44229</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="12">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="12">
         <v>1.5</v>
       </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1">
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
         <v>1</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="12">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="11">
         <v>44230</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="12">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
         <v>0.5</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="11">
         <v>44231</v>
       </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
         <v>0.5</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="12">
         <v>0.5</v>
       </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1">
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
         <v>1</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="11">
         <v>44232</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="11">
         <v>44233</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="11">
         <v>44234</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="11">
         <v>44235</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="11">
         <v>44236</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="11">
         <v>44237</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="11">
         <v>44238</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="11">
         <v>44239</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="11">
         <v>44240</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="11">
         <v>44241</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="11">
         <v>44242</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="11">
         <v>44243</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="A22" s="10">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="11">
         <v>44244</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="C22" s="12">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="11">
         <v>44245</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1">
+      <c r="C23" s="12">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12">
         <v>0.5</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="E23" s="12">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="11">
         <v>44246</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1">
+      <c r="C24" s="12">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12">
         <v>0.5</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="E24" s="12">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="A25" s="10">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="11">
         <v>44247</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1">
+      <c r="C25" s="12">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12">
         <v>0.5</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1">
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12">
         <v>1</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="I25" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="A26" s="10">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="11">
         <v>44248</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="C26" s="12">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="A27" s="10">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="11">
         <v>44249</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="7">
+      <c r="C27" s="12">
+        <v>0</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0</v>
+      </c>
+      <c r="E27" s="14">
         <v>1.5</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="A28" s="10">
         <v>27</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="11">
         <v>44250</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="C28" s="12">
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="11">
         <v>44251</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="C29" s="12">
+        <v>0</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="11">
         <v>44252</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="C30" s="12">
+        <v>0</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="A31" s="10">
         <v>30</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="11">
         <v>44253</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="C31" s="12">
+        <v>0</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="11">
         <v>44254</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="C32" s="12">
+        <v>0</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="11">
         <v>44255</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="C33" s="12">
+        <v>0</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="12">
+        <v>0</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
@@ -1161,7 +1518,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="9"/>
+      <c r="F34" s="8"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1176,7 +1533,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="9"/>
+      <c r="F35" s="8"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1191,7 +1548,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="9"/>
+      <c r="F36" s="8"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1206,7 +1563,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="9"/>
+      <c r="F37" s="8"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1221,7 +1578,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="9"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1236,7 +1593,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="9"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1251,7 +1608,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="9"/>
+      <c r="F40" s="8"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -1266,7 +1623,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="9"/>
+      <c r="F41" s="8"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -1281,7 +1638,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="9"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1296,7 +1653,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="9"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1311,7 +1668,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="9"/>
+      <c r="F44" s="8"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -1326,7 +1683,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="9"/>
+      <c r="F45" s="8"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1341,7 +1698,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="9"/>
+      <c r="F46" s="8"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -1356,7 +1713,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="9"/>
+      <c r="F47" s="8"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -1371,7 +1728,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="9"/>
+      <c r="F48" s="8"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -1386,7 +1743,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="9"/>
+      <c r="F49" s="8"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -1401,7 +1758,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="9"/>
+      <c r="F50" s="8"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -1416,7 +1773,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="9"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -1431,7 +1788,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="9"/>
+      <c r="F52" s="8"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -1446,7 +1803,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="9"/>
+      <c r="F53" s="8"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -1461,7 +1818,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="9"/>
+      <c r="F54" s="8"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -1476,7 +1833,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="9"/>
+      <c r="F55" s="8"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -1491,7 +1848,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="9"/>
+      <c r="F56" s="8"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -1506,7 +1863,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="9"/>
+      <c r="F57" s="8"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -1521,7 +1878,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="9"/>
+      <c r="F58" s="8"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -1536,7 +1893,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="9"/>
+      <c r="F59" s="8"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -1551,7 +1908,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="9"/>
+      <c r="F60" s="8"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -1566,7 +1923,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="9"/>
+      <c r="F61" s="8"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -1581,7 +1938,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="9"/>
+      <c r="F62" s="8"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -1596,7 +1953,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="9"/>
+      <c r="F63" s="8"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -1611,7 +1968,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="9"/>
+      <c r="F64" s="8"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -1626,7 +1983,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="9"/>
+      <c r="F65" s="8"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -1641,7 +1998,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="9"/>
+      <c r="F66" s="8"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -1656,7 +2013,7 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="9"/>
+      <c r="F67" s="8"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -1671,7 +2028,7 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="9"/>
+      <c r="F68" s="8"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -1686,7 +2043,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="9"/>
+      <c r="F69" s="8"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -1701,7 +2058,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="9"/>
+      <c r="F70" s="8"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -1716,7 +2073,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="9"/>
+      <c r="F71" s="8"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -1731,7 +2088,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="9"/>
+      <c r="F72" s="8"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -1746,7 +2103,7 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="9"/>
+      <c r="F73" s="8"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
@@ -1761,7 +2118,7 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="9"/>
+      <c r="F74" s="8"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -1776,7 +2133,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="9"/>
+      <c r="F75" s="8"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -1791,7 +2148,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="9"/>
+      <c r="F76" s="8"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -1806,7 +2163,7 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="9"/>
+      <c r="F77" s="8"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -1821,7 +2178,7 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="9"/>
+      <c r="F78" s="8"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -1836,7 +2193,7 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="9"/>
+      <c r="F79" s="8"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -1851,7 +2208,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="9"/>
+      <c r="F80" s="8"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
@@ -1866,7 +2223,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="9"/>
+      <c r="F81" s="8"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -1881,7 +2238,7 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="9"/>
+      <c r="F82" s="8"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
@@ -1896,7 +2253,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="9"/>
+      <c r="F83" s="8"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -1911,7 +2268,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="9"/>
+      <c r="F84" s="8"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -1926,7 +2283,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="9"/>
+      <c r="F85" s="8"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
@@ -1941,7 +2298,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="9"/>
+      <c r="F86" s="8"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
@@ -1956,7 +2313,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="9"/>
+      <c r="F87" s="8"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
@@ -1971,7 +2328,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="9"/>
+      <c r="F88" s="8"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -1986,7 +2343,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="9"/>
+      <c r="F89" s="8"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -2001,7 +2358,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="9"/>
+      <c r="F90" s="8"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -2016,7 +2373,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="9"/>
+      <c r="F91" s="8"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -2031,7 +2388,7 @@
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="9"/>
+      <c r="F92" s="8"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -2046,7 +2403,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="9"/>
+      <c r="F93" s="8"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -2061,7 +2418,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="9"/>
+      <c r="F94" s="8"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -2076,7 +2433,7 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="9"/>
+      <c r="F95" s="8"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -2091,7 +2448,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="9"/>
+      <c r="F96" s="8"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -2106,7 +2463,7 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="9"/>
+      <c r="F97" s="8"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -2121,7 +2478,7 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="9"/>
+      <c r="F98" s="8"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -2136,7 +2493,7 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="9"/>
+      <c r="F99" s="8"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -2151,7 +2508,7 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="9"/>
+      <c r="F100" s="8"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
@@ -2166,7 +2523,7 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="9"/>
+      <c r="F101" s="8"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -2181,7 +2538,7 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="9"/>
+      <c r="F102" s="8"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -2196,7 +2553,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="9"/>
+      <c r="F103" s="8"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -2211,7 +2568,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="9"/>
+      <c r="F104" s="8"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -2226,7 +2583,7 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="9"/>
+      <c r="F105" s="8"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -2241,7 +2598,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="9"/>
+      <c r="F106" s="8"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -2256,7 +2613,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="9"/>
+      <c r="F107" s="8"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -2271,7 +2628,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="9"/>
+      <c r="F108" s="8"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -2286,7 +2643,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="9"/>
+      <c r="F109" s="8"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
@@ -2301,7 +2658,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="9"/>
+      <c r="F110" s="8"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -2316,7 +2673,7 @@
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="9"/>
+      <c r="F111" s="8"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -2331,7 +2688,7 @@
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="9"/>
+      <c r="F112" s="8"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -2346,7 +2703,7 @@
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="9"/>
+      <c r="F113" s="8"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -2361,7 +2718,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="9"/>
+      <c r="F114" s="8"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -2376,7 +2733,7 @@
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="9"/>
+      <c r="F115" s="8"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -2391,7 +2748,7 @@
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="9"/>
+      <c r="F116" s="8"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -2406,7 +2763,7 @@
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="9"/>
+      <c r="F117" s="8"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -2421,7 +2778,7 @@
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="9"/>
+      <c r="F118" s="8"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -2436,7 +2793,7 @@
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="9"/>
+      <c r="F119" s="8"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -2451,7 +2808,7 @@
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="9"/>
+      <c r="F120" s="8"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -2466,7 +2823,7 @@
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="9"/>
+      <c r="F121" s="8"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -2481,7 +2838,7 @@
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
-      <c r="F122" s="9"/>
+      <c r="F122" s="8"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -2496,7 +2853,7 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="9"/>
+      <c r="F123" s="8"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -2511,7 +2868,7 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
-      <c r="F124" s="9"/>
+      <c r="F124" s="8"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -2526,7 +2883,7 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
-      <c r="F125" s="9"/>
+      <c r="F125" s="8"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -2541,7 +2898,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
-      <c r="F126" s="9"/>
+      <c r="F126" s="8"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -2556,7 +2913,7 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="9"/>
+      <c r="F127" s="8"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -2571,7 +2928,7 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
-      <c r="F128" s="9"/>
+      <c r="F128" s="8"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -2586,7 +2943,7 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="9"/>
+      <c r="F129" s="8"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -2601,7 +2958,7 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="9"/>
+      <c r="F130" s="8"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -2616,7 +2973,7 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="9"/>
+      <c r="F131" s="8"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -2631,7 +2988,7 @@
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="9"/>
+      <c r="F132" s="8"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -2646,7 +3003,7 @@
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
-      <c r="F133" s="9"/>
+      <c r="F133" s="8"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
@@ -2661,7 +3018,7 @@
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="9"/>
+      <c r="F134" s="8"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
@@ -2676,7 +3033,7 @@
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
-      <c r="F135" s="9"/>
+      <c r="F135" s="8"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
@@ -2691,7 +3048,7 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="9"/>
+      <c r="F136" s="8"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -2706,7 +3063,7 @@
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="9"/>
+      <c r="F137" s="8"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -2721,7 +3078,7 @@
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="9"/>
+      <c r="F138" s="8"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
@@ -2736,7 +3093,7 @@
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="9"/>
+      <c r="F139" s="8"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
@@ -2751,7 +3108,7 @@
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
-      <c r="F140" s="9"/>
+      <c r="F140" s="8"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
@@ -2766,7 +3123,7 @@
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="9"/>
+      <c r="F141" s="8"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -2781,7 +3138,7 @@
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="9"/>
+      <c r="F142" s="8"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -2796,7 +3153,7 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="9"/>
+      <c r="F143" s="8"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -2811,7 +3168,7 @@
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="9"/>
+      <c r="F144" s="8"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
@@ -2826,7 +3183,7 @@
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
-      <c r="F145" s="9"/>
+      <c r="F145" s="8"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
@@ -2841,7 +3198,7 @@
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="9"/>
+      <c r="F146" s="8"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
@@ -2856,7 +3213,7 @@
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="9"/>
+      <c r="F147" s="8"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -2871,7 +3228,7 @@
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
-      <c r="F148" s="9"/>
+      <c r="F148" s="8"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -2886,7 +3243,7 @@
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="9"/>
+      <c r="F149" s="8"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -2901,7 +3258,7 @@
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
-      <c r="F150" s="9"/>
+      <c r="F150" s="8"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -2916,7 +3273,7 @@
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
-      <c r="F151" s="9"/>
+      <c r="F151" s="8"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -2931,7 +3288,7 @@
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
-      <c r="F152" s="9"/>
+      <c r="F152" s="8"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -2946,7 +3303,7 @@
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
-      <c r="F153" s="9"/>
+      <c r="F153" s="8"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -2961,7 +3318,7 @@
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
-      <c r="F154" s="9"/>
+      <c r="F154" s="8"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -2976,7 +3333,7 @@
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
-      <c r="F155" s="9"/>
+      <c r="F155" s="8"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -2991,7 +3348,7 @@
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
-      <c r="F156" s="9"/>
+      <c r="F156" s="8"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -3006,7 +3363,7 @@
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
-      <c r="F157" s="9"/>
+      <c r="F157" s="8"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -3021,7 +3378,7 @@
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
-      <c r="F158" s="9"/>
+      <c r="F158" s="8"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -3036,7 +3393,7 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
-      <c r="F159" s="9"/>
+      <c r="F159" s="8"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -3051,7 +3408,7 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
-      <c r="F160" s="9"/>
+      <c r="F160" s="8"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
@@ -3066,7 +3423,7 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
-      <c r="F161" s="9"/>
+      <c r="F161" s="8"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
@@ -3081,7 +3438,7 @@
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
-      <c r="F162" s="9"/>
+      <c r="F162" s="8"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
@@ -3096,7 +3453,7 @@
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
-      <c r="F163" s="9"/>
+      <c r="F163" s="8"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
@@ -3111,7 +3468,7 @@
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
-      <c r="F164" s="9"/>
+      <c r="F164" s="8"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -3126,7 +3483,7 @@
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
-      <c r="F165" s="9"/>
+      <c r="F165" s="8"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -3141,7 +3498,7 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
-      <c r="F166" s="9"/>
+      <c r="F166" s="8"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -3156,7 +3513,7 @@
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
-      <c r="F167" s="9"/>
+      <c r="F167" s="8"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
@@ -3171,7 +3528,7 @@
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
-      <c r="F168" s="9"/>
+      <c r="F168" s="8"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -3186,7 +3543,7 @@
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
-      <c r="F169" s="9"/>
+      <c r="F169" s="8"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
@@ -3201,7 +3558,7 @@
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
-      <c r="F170" s="9"/>
+      <c r="F170" s="8"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -3216,7 +3573,7 @@
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
-      <c r="F171" s="9"/>
+      <c r="F171" s="8"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -3231,7 +3588,7 @@
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
-      <c r="F172" s="9"/>
+      <c r="F172" s="8"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1517,7 +1517,9 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1">
+        <v>1.5</v>
+      </c>
       <c r="F34" s="8"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2017B55-70D8-4D85-975A-8BF3FC939925}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DailyPlan" sheetId="1" r:id="rId1"/>
     <sheet name="catelog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
 </workbook>
 </file>
 
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,9 +337,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,6 +389,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,26 +581,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" customWidth="1"/>
     <col min="6" max="6" width="17" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,7 +629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -624,7 +659,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -654,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -684,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -714,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -744,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -774,7 +809,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -804,7 +839,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -834,7 +869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -862,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -890,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -918,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -946,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -974,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -1002,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1030,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1058,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -1086,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1114,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -1142,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1170,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1198,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1226,7 +1261,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1254,7 +1289,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1284,7 +1319,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1312,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1340,7 +1375,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1368,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1396,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1424,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -1452,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -1480,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -1508,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1518,14 +1553,14 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F34" s="8"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1540,7 +1575,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1555,7 +1590,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1570,7 +1605,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1585,7 +1620,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1600,7 +1635,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1615,7 +1650,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1630,7 +1665,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1645,7 +1680,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1660,7 +1695,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1675,7 +1710,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1690,7 +1725,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1705,7 +1740,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1720,7 +1755,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1735,7 +1770,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1750,7 +1785,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1765,7 +1800,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1780,7 +1815,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1795,7 +1830,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1810,7 +1845,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -1825,7 +1860,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1840,7 +1875,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1855,7 +1890,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1870,7 +1905,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -1885,7 +1920,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -1900,7 +1935,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -1915,7 +1950,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -1930,7 +1965,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -1945,7 +1980,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -1960,7 +1995,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -1975,7 +2010,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -1990,7 +2025,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2005,7 +2040,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2020,7 +2055,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2035,7 +2070,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -2050,7 +2085,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -2065,7 +2100,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -2080,7 +2115,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -2095,7 +2130,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -2110,7 +2145,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -2125,7 +2160,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -2140,7 +2175,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2155,7 +2190,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -2170,7 +2205,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -2185,7 +2220,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -2200,7 +2235,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -2215,7 +2250,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -2230,7 +2265,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -2245,7 +2280,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -2260,7 +2295,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -2275,7 +2310,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -2290,7 +2325,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -2305,7 +2340,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -2320,7 +2355,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -2335,7 +2370,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -2350,7 +2385,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -2365,7 +2400,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -2380,7 +2415,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -2395,7 +2430,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -2410,7 +2445,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -2425,7 +2460,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -2440,7 +2475,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -2455,7 +2490,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -2470,7 +2505,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -2485,7 +2520,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -2500,7 +2535,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -2515,7 +2550,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -2530,7 +2565,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -2545,7 +2580,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -2560,7 +2595,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -2575,7 +2610,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -2590,7 +2625,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -2605,7 +2640,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -2620,7 +2655,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -2635,7 +2670,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -2650,7 +2685,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -2665,7 +2700,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -2680,7 +2715,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -2695,7 +2730,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -2710,7 +2745,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -2725,7 +2760,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -2740,7 +2775,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -2755,7 +2790,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -2770,7 +2805,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -2785,7 +2820,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -2800,7 +2835,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -2815,7 +2850,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -2830,7 +2865,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -2845,7 +2880,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -2860,7 +2895,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -2875,7 +2910,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -2890,7 +2925,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -2905,7 +2940,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -2920,7 +2955,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -2935,7 +2970,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -2950,7 +2985,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -2965,7 +3000,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -2980,7 +3015,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -2995,7 +3030,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -3010,7 +3045,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -3025,7 +3060,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -3040,7 +3075,7 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -3055,7 +3090,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -3070,7 +3105,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -3085,7 +3120,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -3100,7 +3135,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -3115,7 +3150,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -3130,7 +3165,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -3145,7 +3180,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -3160,7 +3195,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -3175,7 +3210,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -3190,7 +3225,7 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -3205,7 +3240,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -3220,7 +3255,7 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -3235,7 +3270,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -3250,7 +3285,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -3265,7 +3300,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -3280,7 +3315,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -3295,7 +3330,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -3310,7 +3345,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -3325,7 +3360,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -3340,7 +3375,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -3355,7 +3390,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -3370,7 +3405,7 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -3385,7 +3420,7 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -3400,7 +3435,7 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -3415,7 +3450,7 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -3430,7 +3465,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -3445,7 +3480,7 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -3460,7 +3495,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -3475,7 +3510,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -3490,7 +3525,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -3505,7 +3540,7 @@
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -3520,7 +3555,7 @@
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -3535,7 +3570,7 @@
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -3550,7 +3585,7 @@
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -3565,7 +3600,7 @@
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -3580,7 +3615,7 @@
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -3598,7 +3633,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="catelog!A1" display="Read(1h)"/>
+    <hyperlink ref="D1" location="catelog!A1" display="Read(1h)" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3606,21 +3641,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3637,7 +3672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3648,7 +3683,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3659,7 +3694,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3670,7 +3705,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3681,7 +3716,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3692,7 +3727,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3703,7 +3738,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3714,7 +3749,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3725,7 +3760,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3736,7 +3771,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3747,7 +3782,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -3758,21 +3793,21 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="12">
-        <f t="shared" ref="I3:I33" si="0">SUM(C3:H3)</f>
+        <f t="shared" ref="I3:I34" si="0">SUM(C3:H3)</f>
         <v>1</v>
       </c>
     </row>
@@ -856,7 +856,9 @@
       <c r="G10" s="12">
         <v>0</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
       <c r="I10" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -884,7 +886,9 @@
       <c r="G11" s="12">
         <v>0</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
       <c r="I11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -912,7 +916,9 @@
       <c r="G12" s="12">
         <v>0</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
       <c r="I12" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -940,7 +946,9 @@
       <c r="G13" s="12">
         <v>0</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
       <c r="I13" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -968,7 +976,9 @@
       <c r="G14" s="12">
         <v>0</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
       <c r="I14" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -996,7 +1006,9 @@
       <c r="G15" s="12">
         <v>0</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
       <c r="I15" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1024,7 +1036,9 @@
       <c r="G16" s="12">
         <v>0</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
       <c r="I16" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1052,7 +1066,9 @@
       <c r="G17" s="12">
         <v>0</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
       <c r="I17" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1080,7 +1096,9 @@
       <c r="G18" s="12">
         <v>0</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
       <c r="I18" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1108,7 +1126,9 @@
       <c r="G19" s="12">
         <v>0</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="12">
+        <v>0</v>
+      </c>
       <c r="I19" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1136,7 +1156,9 @@
       <c r="G20" s="12">
         <v>0</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
       <c r="I20" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1164,7 +1186,9 @@
       <c r="G21" s="12">
         <v>0</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
       <c r="I21" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1192,7 +1216,9 @@
       <c r="G22" s="12">
         <v>0</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
       <c r="I22" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1220,7 +1246,9 @@
       <c r="G23" s="12">
         <v>0</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
       <c r="I23" s="12">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -1248,7 +1276,9 @@
       <c r="G24" s="12">
         <v>0</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
       <c r="I24" s="12">
         <f t="shared" si="0"/>
         <v>0.5</v>
@@ -1306,7 +1336,9 @@
       <c r="G26" s="12">
         <v>0</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
       <c r="I26" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1334,7 +1366,9 @@
       <c r="G27" s="12">
         <v>0</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
       <c r="I27" s="12">
         <f t="shared" si="0"/>
         <v>1.5</v>
@@ -1362,7 +1396,9 @@
       <c r="G28" s="12">
         <v>0</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
       <c r="I28" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1390,7 +1426,9 @@
       <c r="G29" s="12">
         <v>0</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="12">
+        <v>0</v>
+      </c>
       <c r="I29" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1418,7 +1456,9 @@
       <c r="G30" s="12">
         <v>0</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
       <c r="I30" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1446,7 +1486,9 @@
       <c r="G31" s="12">
         <v>0</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="12">
+        <v>0</v>
+      </c>
       <c r="I31" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1474,7 +1516,9 @@
       <c r="G32" s="12">
         <v>0</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
       <c r="I32" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1502,28 +1546,43 @@
       <c r="G33" s="12">
         <v>0</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
       <c r="I33" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="11">
         <v>44256</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="C34" s="12">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="I34" s="12">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
@@ -1533,8 +1592,12 @@
         <v>44257</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
       <c r="F35" s="8"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3609,9 +3672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="12">
-        <f t="shared" ref="I3:I34" si="0">SUM(C3:H3)</f>
+        <f t="shared" ref="I3:I66" si="0">SUM(C3:H3)</f>
         <v>1</v>
       </c>
     </row>
@@ -1591,17 +1591,28 @@
       <c r="B35" s="4">
         <v>44257</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="1">
         <v>3</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
@@ -1610,13 +1621,20 @@
       <c r="B36" s="4">
         <v>44258</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="8"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
@@ -1631,7 +1649,10 @@
       <c r="F37" s="8"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
@@ -1646,7 +1667,10 @@
       <c r="F38" s="8"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="I38" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
@@ -1661,7 +1685,10 @@
       <c r="F39" s="8"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="I39" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
@@ -1676,7 +1703,10 @@
       <c r="F40" s="8"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
@@ -1691,7 +1721,10 @@
       <c r="F41" s="8"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
@@ -1706,7 +1739,10 @@
       <c r="F42" s="8"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
@@ -1721,7 +1757,10 @@
       <c r="F43" s="8"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="I43" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
@@ -1736,7 +1775,10 @@
       <c r="F44" s="8"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
@@ -1751,7 +1793,10 @@
       <c r="F45" s="8"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
@@ -1766,7 +1811,10 @@
       <c r="F46" s="8"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
@@ -1781,7 +1829,10 @@
       <c r="F47" s="8"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
@@ -1796,7 +1847,10 @@
       <c r="F48" s="8"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
@@ -1811,7 +1865,10 @@
       <c r="F49" s="8"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
@@ -1826,7 +1883,10 @@
       <c r="F50" s="8"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="I50" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
@@ -1841,7 +1901,10 @@
       <c r="F51" s="8"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
@@ -1856,7 +1919,10 @@
       <c r="F52" s="8"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="I52" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
@@ -1871,7 +1937,10 @@
       <c r="F53" s="8"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="I53" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
@@ -1886,7 +1955,10 @@
       <c r="F54" s="8"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="I54" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
@@ -1901,7 +1973,10 @@
       <c r="F55" s="8"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="I55" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
@@ -1916,7 +1991,10 @@
       <c r="F56" s="8"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="I56" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
@@ -1931,7 +2009,10 @@
       <c r="F57" s="8"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="I57" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
@@ -1946,7 +2027,10 @@
       <c r="F58" s="8"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
@@ -1961,7 +2045,10 @@
       <c r="F59" s="8"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="I59" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
@@ -1976,7 +2063,10 @@
       <c r="F60" s="8"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="I60" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
@@ -1991,7 +2081,10 @@
       <c r="F61" s="8"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="I61" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
@@ -2006,7 +2099,10 @@
       <c r="F62" s="8"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
@@ -2021,7 +2117,10 @@
       <c r="F63" s="8"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="I63" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
@@ -2036,7 +2135,10 @@
       <c r="F64" s="8"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
@@ -2051,7 +2153,10 @@
       <c r="F65" s="8"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="I65" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
@@ -2066,7 +2171,10 @@
       <c r="F66" s="8"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
@@ -2081,7 +2189,10 @@
       <c r="F67" s="8"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="12">
+        <f t="shared" ref="I67:I130" si="1">SUM(C67:H67)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
@@ -2096,7 +2207,10 @@
       <c r="F68" s="8"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="I68" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
@@ -2111,7 +2225,10 @@
       <c r="F69" s="8"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="I69" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
@@ -2126,7 +2243,10 @@
       <c r="F70" s="8"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
@@ -2141,7 +2261,10 @@
       <c r="F71" s="8"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
@@ -2156,7 +2279,10 @@
       <c r="F72" s="8"/>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+      <c r="I72" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
@@ -2171,7 +2297,10 @@
       <c r="F73" s="8"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+      <c r="I73" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
@@ -2186,7 +2315,10 @@
       <c r="F74" s="8"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
+      <c r="I74" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
@@ -2201,7 +2333,10 @@
       <c r="F75" s="8"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="I75" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
@@ -2216,7 +2351,10 @@
       <c r="F76" s="8"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="I76" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
@@ -2231,7 +2369,10 @@
       <c r="F77" s="8"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+      <c r="I77" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
@@ -2246,7 +2387,10 @@
       <c r="F78" s="8"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+      <c r="I78" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
@@ -2261,7 +2405,10 @@
       <c r="F79" s="8"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
+      <c r="I79" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
@@ -2276,7 +2423,10 @@
       <c r="F80" s="8"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
+      <c r="I80" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
@@ -2291,7 +2441,10 @@
       <c r="F81" s="8"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
+      <c r="I81" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
@@ -2306,7 +2459,10 @@
       <c r="F82" s="8"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
+      <c r="I82" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
@@ -2321,7 +2477,10 @@
       <c r="F83" s="8"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
+      <c r="I83" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
@@ -2336,7 +2495,10 @@
       <c r="F84" s="8"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="I84" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
@@ -2351,7 +2513,10 @@
       <c r="F85" s="8"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
+      <c r="I85" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
@@ -2366,7 +2531,10 @@
       <c r="F86" s="8"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
+      <c r="I86" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
@@ -2381,7 +2549,10 @@
       <c r="F87" s="8"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
+      <c r="I87" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
@@ -2396,7 +2567,10 @@
       <c r="F88" s="8"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
+      <c r="I88" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
@@ -2411,7 +2585,10 @@
       <c r="F89" s="8"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
+      <c r="I89" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
@@ -2426,7 +2603,10 @@
       <c r="F90" s="8"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
+      <c r="I90" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
@@ -2441,7 +2621,10 @@
       <c r="F91" s="8"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="I91" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
@@ -2456,7 +2639,10 @@
       <c r="F92" s="8"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
+      <c r="I92" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
@@ -2471,7 +2657,10 @@
       <c r="F93" s="8"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="I93" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
@@ -2486,7 +2675,10 @@
       <c r="F94" s="8"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
+      <c r="I94" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
@@ -2501,7 +2693,10 @@
       <c r="F95" s="8"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
+      <c r="I95" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
@@ -2516,7 +2711,10 @@
       <c r="F96" s="8"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
+      <c r="I96" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
@@ -2531,7 +2729,10 @@
       <c r="F97" s="8"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
+      <c r="I97" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
@@ -2546,7 +2747,10 @@
       <c r="F98" s="8"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
+      <c r="I98" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
@@ -2561,7 +2765,10 @@
       <c r="F99" s="8"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
+      <c r="I99" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
@@ -2576,7 +2783,10 @@
       <c r="F100" s="8"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
+      <c r="I100" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
@@ -2591,7 +2801,10 @@
       <c r="F101" s="8"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
+      <c r="I101" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
@@ -2606,7 +2819,10 @@
       <c r="F102" s="8"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="I102" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
@@ -2621,7 +2837,10 @@
       <c r="F103" s="8"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
+      <c r="I103" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
@@ -2636,7 +2855,10 @@
       <c r="F104" s="8"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
+      <c r="I104" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
@@ -2651,7 +2873,10 @@
       <c r="F105" s="8"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
+      <c r="I105" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
@@ -2666,7 +2891,10 @@
       <c r="F106" s="8"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
+      <c r="I106" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
@@ -2681,7 +2909,10 @@
       <c r="F107" s="8"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
+      <c r="I107" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
@@ -2696,7 +2927,10 @@
       <c r="F108" s="8"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
+      <c r="I108" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
@@ -2711,7 +2945,10 @@
       <c r="F109" s="8"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
+      <c r="I109" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
@@ -2726,7 +2963,10 @@
       <c r="F110" s="8"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
+      <c r="I110" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
@@ -2741,7 +2981,10 @@
       <c r="F111" s="8"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
+      <c r="I111" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
@@ -2756,7 +2999,10 @@
       <c r="F112" s="8"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
+      <c r="I112" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
@@ -2771,7 +3017,10 @@
       <c r="F113" s="8"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
+      <c r="I113" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
@@ -2786,7 +3035,10 @@
       <c r="F114" s="8"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
+      <c r="I114" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
@@ -2801,7 +3053,10 @@
       <c r="F115" s="8"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
+      <c r="I115" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
@@ -2816,7 +3071,10 @@
       <c r="F116" s="8"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
+      <c r="I116" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
@@ -2831,7 +3089,10 @@
       <c r="F117" s="8"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
+      <c r="I117" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
@@ -2846,7 +3107,10 @@
       <c r="F118" s="8"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
+      <c r="I118" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
@@ -2861,7 +3125,10 @@
       <c r="F119" s="8"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
+      <c r="I119" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
@@ -2876,7 +3143,10 @@
       <c r="F120" s="8"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
+      <c r="I120" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
@@ -2891,7 +3161,10 @@
       <c r="F121" s="8"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
+      <c r="I121" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
@@ -2906,7 +3179,10 @@
       <c r="F122" s="8"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
+      <c r="I122" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
@@ -2921,7 +3197,10 @@
       <c r="F123" s="8"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
+      <c r="I123" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A124" s="3">
@@ -2936,7 +3215,10 @@
       <c r="F124" s="8"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
+      <c r="I124" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A125" s="3">
@@ -2951,7 +3233,10 @@
       <c r="F125" s="8"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
+      <c r="I125" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A126" s="3">
@@ -2966,7 +3251,10 @@
       <c r="F126" s="8"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
+      <c r="I126" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A127" s="3">
@@ -2981,7 +3269,10 @@
       <c r="F127" s="8"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
+      <c r="I127" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A128" s="3">
@@ -2996,7 +3287,10 @@
       <c r="F128" s="8"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
+      <c r="I128" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A129" s="3">
@@ -3011,7 +3305,10 @@
       <c r="F129" s="8"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
+      <c r="I129" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A130" s="3">
@@ -3026,7 +3323,10 @@
       <c r="F130" s="8"/>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
+      <c r="I130" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A131" s="3">
@@ -3041,7 +3341,10 @@
       <c r="F131" s="8"/>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
+      <c r="I131" s="12">
+        <f t="shared" ref="I131:I172" si="2">SUM(C131:H131)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A132" s="3">
@@ -3056,7 +3359,10 @@
       <c r="F132" s="8"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
+      <c r="I132" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A133" s="3">
@@ -3071,7 +3377,10 @@
       <c r="F133" s="8"/>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
+      <c r="I133" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A134" s="3">
@@ -3086,7 +3395,10 @@
       <c r="F134" s="8"/>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
+      <c r="I134" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A135" s="3">
@@ -3101,7 +3413,10 @@
       <c r="F135" s="8"/>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
+      <c r="I135" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A136" s="3">
@@ -3116,7 +3431,10 @@
       <c r="F136" s="8"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
+      <c r="I136" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A137" s="3">
@@ -3131,7 +3449,10 @@
       <c r="F137" s="8"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
+      <c r="I137" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A138" s="3">
@@ -3146,7 +3467,10 @@
       <c r="F138" s="8"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
+      <c r="I138" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A139" s="3">
@@ -3161,7 +3485,10 @@
       <c r="F139" s="8"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
+      <c r="I139" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A140" s="3">
@@ -3176,7 +3503,10 @@
       <c r="F140" s="8"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
+      <c r="I140" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A141" s="3">
@@ -3191,7 +3521,10 @@
       <c r="F141" s="8"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
+      <c r="I141" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A142" s="3">
@@ -3206,7 +3539,10 @@
       <c r="F142" s="8"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
+      <c r="I142" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A143" s="3">
@@ -3221,7 +3557,10 @@
       <c r="F143" s="8"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
+      <c r="I143" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A144" s="3">
@@ -3236,7 +3575,10 @@
       <c r="F144" s="8"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
+      <c r="I144" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A145" s="3">
@@ -3251,7 +3593,10 @@
       <c r="F145" s="8"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
+      <c r="I145" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A146" s="3">
@@ -3266,7 +3611,10 @@
       <c r="F146" s="8"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
+      <c r="I146" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A147" s="3">
@@ -3281,7 +3629,10 @@
       <c r="F147" s="8"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
+      <c r="I147" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A148" s="3">
@@ -3296,7 +3647,10 @@
       <c r="F148" s="8"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
+      <c r="I148" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A149" s="3">
@@ -3311,7 +3665,10 @@
       <c r="F149" s="8"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
+      <c r="I149" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A150" s="3">
@@ -3326,7 +3683,10 @@
       <c r="F150" s="8"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
+      <c r="I150" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A151" s="3">
@@ -3341,7 +3701,10 @@
       <c r="F151" s="8"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
+      <c r="I151" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A152" s="3">
@@ -3356,7 +3719,10 @@
       <c r="F152" s="8"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
+      <c r="I152" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A153" s="3">
@@ -3371,7 +3737,10 @@
       <c r="F153" s="8"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
+      <c r="I153" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A154" s="3">
@@ -3386,7 +3755,10 @@
       <c r="F154" s="8"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
+      <c r="I154" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A155" s="3">
@@ -3401,7 +3773,10 @@
       <c r="F155" s="8"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
+      <c r="I155" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A156" s="3">
@@ -3416,7 +3791,10 @@
       <c r="F156" s="8"/>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
+      <c r="I156" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A157" s="3">
@@ -3431,7 +3809,10 @@
       <c r="F157" s="8"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
+      <c r="I157" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A158" s="3">
@@ -3446,7 +3827,10 @@
       <c r="F158" s="8"/>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
+      <c r="I158" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A159" s="3">
@@ -3461,7 +3845,10 @@
       <c r="F159" s="8"/>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
+      <c r="I159" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A160" s="3">
@@ -3476,7 +3863,10 @@
       <c r="F160" s="8"/>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
+      <c r="I160" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A161" s="3">
@@ -3491,7 +3881,10 @@
       <c r="F161" s="8"/>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
+      <c r="I161" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A162" s="3">
@@ -3506,7 +3899,10 @@
       <c r="F162" s="8"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
+      <c r="I162" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A163" s="3">
@@ -3521,7 +3917,10 @@
       <c r="F163" s="8"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
+      <c r="I163" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A164" s="3">
@@ -3536,7 +3935,10 @@
       <c r="F164" s="8"/>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
+      <c r="I164" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A165" s="3">
@@ -3551,7 +3953,10 @@
       <c r="F165" s="8"/>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
+      <c r="I165" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A166" s="3">
@@ -3566,7 +3971,10 @@
       <c r="F166" s="8"/>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
+      <c r="I166" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A167" s="3">
@@ -3581,7 +3989,10 @@
       <c r="F167" s="8"/>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
+      <c r="I167" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A168" s="3">
@@ -3596,7 +4007,10 @@
       <c r="F168" s="8"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
+      <c r="I168" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A169" s="3">
@@ -3611,7 +4025,10 @@
       <c r="F169" s="8"/>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
+      <c r="I169" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A170" s="3">
@@ -3626,7 +4043,10 @@
       <c r="F170" s="8"/>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
+      <c r="I170" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A171" s="3">
@@ -3641,7 +4061,10 @@
       <c r="F171" s="8"/>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
+      <c r="I171" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A172" s="3">
@@ -3656,7 +4079,10 @@
       <c r="F172" s="8"/>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
+      <c r="I172" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1627,10 +1627,18 @@
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
       <c r="I36" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1643,15 +1651,27 @@
       <c r="B37" s="4">
         <v>44259</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
       <c r="I37" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,13 +160,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -218,28 +211,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -549,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,7 +548,7 @@
     <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="17" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -575,13 +563,13 @@
       <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -595,3511 +583,3515 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="10">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>44224</v>
       </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
         <v>1.5</v>
       </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
         <f>SUM(C2:H2)</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="8">
         <v>44225</v>
       </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
         <v>1</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
         <f t="shared" ref="I3:I66" si="0">SUM(C3:H3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>44226</v>
       </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>44227</v>
       </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>44228</v>
       </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="12">
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>44229</v>
       </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>1.5</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
         <v>1</v>
       </c>
-      <c r="I7" s="12">
-        <f t="shared" si="0"/>
+      <c r="I7" s="9">
+        <f>SUM(C7:H7)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>44230</v>
       </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
         <v>0.5</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>44231</v>
       </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
         <v>0.5</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <v>0.5</v>
       </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
         <v>1</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>44232</v>
       </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>0</v>
-      </c>
-      <c r="I10" s="12">
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>44233</v>
       </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="12">
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>44234</v>
       </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12">
+      <c r="C12" s="9">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>44235</v>
       </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12">
-        <v>0</v>
-      </c>
-      <c r="I13" s="12">
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>44236</v>
       </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="12">
-        <v>0</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
-      <c r="H14" s="12">
-        <v>0</v>
-      </c>
-      <c r="I14" s="12">
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>44237</v>
       </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>44238</v>
       </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="12">
-        <v>0</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>44239</v>
       </c>
-      <c r="C17" s="12">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="12">
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>44240</v>
       </c>
-      <c r="C18" s="12">
-        <v>0</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" s="12">
-        <v>0</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>44241</v>
       </c>
-      <c r="C19" s="12">
-        <v>0</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="10">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>44242</v>
       </c>
-      <c r="C20" s="12">
-        <v>0</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="F20" s="13">
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
-      <c r="H20" s="12">
-        <v>0</v>
-      </c>
-      <c r="I20" s="12">
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>44243</v>
       </c>
-      <c r="C21" s="12">
-        <v>0</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
+      <c r="C21" s="9">
+        <v>0</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0</v>
+      </c>
+      <c r="I21" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="10">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>44244</v>
       </c>
-      <c r="C22" s="12">
-        <v>0</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="12">
-        <v>0</v>
-      </c>
-      <c r="F22" s="13">
-        <v>0</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="12">
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="10">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <v>44245</v>
       </c>
-      <c r="C23" s="12">
-        <v>0</v>
-      </c>
-      <c r="D23" s="12">
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
         <v>0.5</v>
       </c>
-      <c r="E23" s="12">
-        <v>0</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-      <c r="H23" s="12">
-        <v>0</v>
-      </c>
-      <c r="I23" s="12">
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="10">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="8">
         <v>44246</v>
       </c>
-      <c r="C24" s="12">
-        <v>0</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
         <v>0.5</v>
       </c>
-      <c r="E24" s="12">
-        <v>0</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12">
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <v>44247</v>
       </c>
-      <c r="C25" s="12">
-        <v>0</v>
-      </c>
-      <c r="D25" s="12">
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
         <v>0.5</v>
       </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
-        <v>0</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="12">
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
         <v>1</v>
       </c>
-      <c r="I25" s="12">
+      <c r="I25" s="9">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="10">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <v>44248</v>
       </c>
-      <c r="C26" s="12">
-        <v>0</v>
-      </c>
-      <c r="D26" s="12">
-        <v>0</v>
-      </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" s="12">
-        <v>0</v>
-      </c>
-      <c r="I26" s="12">
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="8">
         <v>44249</v>
       </c>
-      <c r="C27" s="12">
-        <v>0</v>
-      </c>
-      <c r="D27" s="12">
-        <v>0</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
         <v>1.5</v>
       </c>
-      <c r="F27" s="13">
-        <v>0</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" s="12">
-        <v>0</v>
-      </c>
-      <c r="I27" s="12">
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="10">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="8">
         <v>44250</v>
       </c>
-      <c r="C28" s="12">
-        <v>0</v>
-      </c>
-      <c r="D28" s="12">
-        <v>0</v>
-      </c>
-      <c r="E28" s="12">
-        <v>0</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0</v>
-      </c>
-      <c r="I28" s="12">
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="10">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="8">
         <v>44251</v>
       </c>
-      <c r="C29" s="12">
-        <v>0</v>
-      </c>
-      <c r="D29" s="12">
-        <v>0</v>
-      </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="12">
-        <v>0</v>
-      </c>
-      <c r="I29" s="12">
+      <c r="C29" s="9">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="10">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="8">
         <v>44252</v>
       </c>
-      <c r="C30" s="12">
-        <v>0</v>
-      </c>
-      <c r="D30" s="12">
-        <v>0</v>
-      </c>
-      <c r="E30" s="12">
-        <v>0</v>
-      </c>
-      <c r="F30" s="13">
-        <v>0</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0</v>
-      </c>
-      <c r="H30" s="12">
-        <v>0</v>
-      </c>
-      <c r="I30" s="12">
+      <c r="C30" s="9">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="10">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="8">
         <v>44253</v>
       </c>
-      <c r="C31" s="12">
-        <v>0</v>
-      </c>
-      <c r="D31" s="12">
-        <v>0</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="C31" s="9">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
         <v>0.5</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="10">
         <v>0.5</v>
       </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="12">
-        <v>0</v>
-      </c>
-      <c r="I31" s="12">
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="8">
         <v>44254</v>
       </c>
-      <c r="C32" s="12">
-        <v>0</v>
-      </c>
-      <c r="D32" s="12">
-        <v>0</v>
-      </c>
-      <c r="E32" s="12">
-        <v>0</v>
-      </c>
-      <c r="F32" s="13">
-        <v>0</v>
-      </c>
-      <c r="G32" s="12">
-        <v>0</v>
-      </c>
-      <c r="H32" s="12">
-        <v>0</v>
-      </c>
-      <c r="I32" s="12">
+      <c r="C32" s="9">
+        <v>0</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="10">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="8">
         <v>44255</v>
       </c>
-      <c r="C33" s="12">
-        <v>0</v>
-      </c>
-      <c r="D33" s="12">
-        <v>0</v>
-      </c>
-      <c r="E33" s="12">
-        <v>0</v>
-      </c>
-      <c r="F33" s="13">
-        <v>0</v>
-      </c>
-      <c r="G33" s="12">
-        <v>0</v>
-      </c>
-      <c r="H33" s="12">
-        <v>0</v>
-      </c>
-      <c r="I33" s="12">
+      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="8">
         <v>44256</v>
       </c>
-      <c r="C34" s="12">
-        <v>0</v>
-      </c>
-      <c r="D34" s="12">
-        <v>0</v>
-      </c>
-      <c r="E34" s="12">
+      <c r="C34" s="9">
+        <v>0</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
         <v>2</v>
       </c>
-      <c r="F34" s="13">
-        <v>0</v>
-      </c>
-      <c r="G34" s="12">
-        <v>0</v>
-      </c>
-      <c r="H34" s="12">
-        <v>0</v>
-      </c>
-      <c r="I34" s="12">
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="8">
         <v>44257</v>
       </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35" s="9">
+        <v>0</v>
+      </c>
+      <c r="D35" s="9">
         <v>1</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="9">
         <v>3</v>
       </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
         <v>1</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="8">
         <v>44258</v>
       </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36" s="9">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
         <v>1</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="12">
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="8">
         <v>44259</v>
       </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="C37" s="9">
+        <v>0</v>
+      </c>
+      <c r="D37" s="9">
         <v>0.5</v>
       </c>
-      <c r="E37" s="1">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10">
         <v>1</v>
       </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="12">
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="8">
         <v>44260</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="8">
         <v>44261</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="12">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="8">
         <v>44262</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="12">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="8">
         <v>44263</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="8">
         <v>44264</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="12">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="8">
         <v>44265</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="12">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="8">
         <v>44266</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="12">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="8">
         <v>44267</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="12">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="8">
         <v>44268</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="12">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="8">
         <v>44269</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="12">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="8">
         <v>44270</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="12">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="8">
         <v>44271</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="12">
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="8">
         <v>44272</v>
       </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="12">
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="8">
         <v>44273</v>
       </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="12">
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="8">
         <v>44274</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="12">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53" s="8">
         <v>44275</v>
       </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="12">
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="8">
         <v>44276</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="12">
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="8">
         <v>44277</v>
       </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="12">
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="A56" s="7">
         <v>55</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="8">
         <v>44278</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="12">
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="A57" s="7">
         <v>56</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="8">
         <v>44279</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="12">
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="A58" s="7">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58" s="8">
         <v>44280</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="12">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="A59" s="7">
         <v>58</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59" s="8">
         <v>44281</v>
       </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="12">
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="A60" s="7">
         <v>59</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60" s="8">
         <v>44282</v>
       </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="12">
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+      <c r="A61" s="7">
         <v>60</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61" s="8">
         <v>44283</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="12">
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62" s="8">
         <v>44284</v>
       </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="12">
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63" s="8">
         <v>44285</v>
       </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="12">
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64" s="8">
         <v>44286</v>
       </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="12">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65" s="8">
         <v>44287</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="12">
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66" s="8">
         <v>44288</v>
       </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="12">
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67" s="8">
         <v>44289</v>
       </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="12">
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9">
         <f t="shared" ref="I67:I130" si="1">SUM(C67:H67)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68" s="8">
         <v>44290</v>
       </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="12">
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69" s="8">
         <v>44291</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="12">
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70" s="8">
         <v>44292</v>
       </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="12">
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71" s="8">
         <v>44293</v>
       </c>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="12">
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72" s="8">
         <v>44294</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="12">
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73" s="8">
         <v>44295</v>
       </c>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="12">
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74" s="8">
         <v>44296</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="12">
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75" s="8">
         <v>44297</v>
       </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="12">
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="3">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76" s="8">
         <v>44298</v>
       </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="12">
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="3">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77" s="8">
         <v>44299</v>
       </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="12">
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="3">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78" s="8">
         <v>44300</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="12">
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="3">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79" s="8">
         <v>44301</v>
       </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="12">
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="3">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="8">
         <v>44302</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="12">
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="3">
+      <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81" s="8">
         <v>44303</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="12">
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="3">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82" s="8">
         <v>44304</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="12">
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="3">
+      <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83" s="8">
         <v>44305</v>
       </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="12">
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="3">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84" s="8">
         <v>44306</v>
       </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="12">
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="3">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85" s="8">
         <v>44307</v>
       </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="12">
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="3">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86" s="8">
         <v>44308</v>
       </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="12">
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="3">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87" s="8">
         <v>44309</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="12">
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="3">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="8">
         <v>44310</v>
       </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="12">
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="3">
+      <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89" s="8">
         <v>44311</v>
       </c>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="12">
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="3">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90" s="8">
         <v>44312</v>
       </c>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="12">
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="3">
+      <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91" s="8">
         <v>44313</v>
       </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="12">
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="3">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92" s="8">
         <v>44314</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="12">
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="3">
+      <c r="A93" s="7">
         <v>92</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93" s="8">
         <v>44315</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="12">
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="3">
+      <c r="A94" s="7">
         <v>93</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94" s="8">
         <v>44316</v>
       </c>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="12">
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="3">
+      <c r="A95" s="7">
         <v>94</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95" s="8">
         <v>44317</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="12">
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="3">
+      <c r="A96" s="7">
         <v>95</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96" s="8">
         <v>44318</v>
       </c>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="12">
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="3">
+      <c r="A97" s="7">
         <v>96</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97" s="8">
         <v>44319</v>
       </c>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="12">
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="3">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98" s="8">
         <v>44320</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="12">
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="3">
+      <c r="A99" s="7">
         <v>98</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99" s="8">
         <v>44321</v>
       </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="12">
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="3">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100" s="8">
         <v>44322</v>
       </c>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="8"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="12">
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="3">
+      <c r="A101" s="7">
         <v>100</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101" s="8">
         <v>44323</v>
       </c>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="12">
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="3">
+      <c r="A102" s="7">
         <v>101</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="8">
         <v>44324</v>
       </c>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="12">
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="3">
+      <c r="A103" s="7">
         <v>102</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="8">
         <v>44325</v>
       </c>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="12">
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="3">
+      <c r="A104" s="7">
         <v>103</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="8">
         <v>44326</v>
       </c>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="12">
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="3">
+      <c r="A105" s="7">
         <v>104</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="8">
         <v>44327</v>
       </c>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="12">
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="3">
+      <c r="A106" s="7">
         <v>105</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="8">
         <v>44328</v>
       </c>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="12">
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="3">
+      <c r="A107" s="7">
         <v>106</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="8">
         <v>44329</v>
       </c>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="12">
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="3">
+      <c r="A108" s="7">
         <v>107</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="8">
         <v>44330</v>
       </c>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="12">
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="3">
+      <c r="A109" s="7">
         <v>108</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="8">
         <v>44331</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="8"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="12">
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="3">
+      <c r="A110" s="7">
         <v>109</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="8">
         <v>44332</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="12">
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111" s="3">
+      <c r="A111" s="7">
         <v>110</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111" s="8">
         <v>44333</v>
       </c>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="8"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="12">
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="3">
+      <c r="A112" s="7">
         <v>111</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112" s="8">
         <v>44334</v>
       </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="12">
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113" s="3">
+      <c r="A113" s="7">
         <v>112</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113" s="8">
         <v>44335</v>
       </c>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="8"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="12">
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="3">
+      <c r="A114" s="7">
         <v>113</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114" s="8">
         <v>44336</v>
       </c>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="8"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="12">
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A115" s="3">
+      <c r="A115" s="7">
         <v>114</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115" s="8">
         <v>44337</v>
       </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="12">
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A116" s="3">
+      <c r="A116" s="7">
         <v>115</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116" s="8">
         <v>44338</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="12">
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A117" s="3">
+      <c r="A117" s="7">
         <v>116</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117" s="8">
         <v>44339</v>
       </c>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="12">
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A118" s="3">
+      <c r="A118" s="7">
         <v>117</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118" s="8">
         <v>44340</v>
       </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="12">
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119" s="3">
+      <c r="A119" s="7">
         <v>118</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119" s="8">
         <v>44341</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="12">
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A120" s="3">
+      <c r="A120" s="7">
         <v>119</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120" s="8">
         <v>44342</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="12">
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A121" s="3">
+      <c r="A121" s="7">
         <v>120</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121" s="8">
         <v>44343</v>
       </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="12">
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A122" s="3">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122" s="8">
         <v>44344</v>
       </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="12">
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A123" s="3">
+      <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123" s="8">
         <v>44345</v>
       </c>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="12">
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A124" s="3">
+      <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124" s="8">
         <v>44346</v>
       </c>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="12">
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A125" s="3">
+      <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125" s="8">
         <v>44347</v>
       </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="12">
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A126" s="3">
+      <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126" s="8">
         <v>44348</v>
       </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="12">
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A127" s="3">
+      <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127" s="8">
         <v>44349</v>
       </c>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="12">
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A128" s="3">
+      <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128" s="8">
         <v>44350</v>
       </c>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="12">
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A129" s="3">
+      <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129" s="8">
         <v>44351</v>
       </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="12">
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A130" s="3">
+      <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130" s="8">
         <v>44352</v>
       </c>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="12">
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A131" s="3">
+      <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131" s="8">
         <v>44353</v>
       </c>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="12">
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9">
         <f t="shared" ref="I131:I172" si="2">SUM(C131:H131)</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A132" s="3">
+      <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132" s="8">
         <v>44354</v>
       </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="12">
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A133" s="3">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133" s="8">
         <v>44355</v>
       </c>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="12">
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A134" s="3">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134" s="8">
         <v>44356</v>
       </c>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="12">
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A135" s="3">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135" s="8">
         <v>44357</v>
       </c>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="12">
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A136" s="3">
+      <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136" s="8">
         <v>44358</v>
       </c>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="12">
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A137" s="3">
+      <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137" s="8">
         <v>44359</v>
       </c>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="12">
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A138" s="3">
+      <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="8">
         <v>44360</v>
       </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="8"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="12">
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A139" s="3">
+      <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="8">
         <v>44361</v>
       </c>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="12">
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A140" s="3">
+      <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="8">
         <v>44362</v>
       </c>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="12">
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A141" s="3">
+      <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="8">
         <v>44363</v>
       </c>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="12">
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="9"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A142" s="3">
+      <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="8">
         <v>44364</v>
       </c>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="12">
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A143" s="3">
+      <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="8">
         <v>44365</v>
       </c>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="12">
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A144" s="3">
+      <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="8">
         <v>44366</v>
       </c>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="12">
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A145" s="3">
+      <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="8">
         <v>44367</v>
       </c>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="12">
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A146" s="3">
+      <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146" s="8">
         <v>44368</v>
       </c>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="8"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="12">
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A147" s="3">
+      <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147" s="8">
         <v>44369</v>
       </c>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="12">
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A148" s="3">
+      <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148" s="8">
         <v>44370</v>
       </c>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="12">
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A149" s="3">
+      <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149" s="8">
         <v>44371</v>
       </c>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="12">
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A150" s="3">
+      <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150" s="8">
         <v>44372</v>
       </c>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="12">
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A151" s="3">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151" s="8">
         <v>44373</v>
       </c>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="8"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="12">
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A152" s="3">
+      <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152" s="8">
         <v>44374</v>
       </c>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="8"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="12">
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A153" s="3">
+      <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153" s="8">
         <v>44375</v>
       </c>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="12">
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A154" s="3">
+      <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154" s="8">
         <v>44376</v>
       </c>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="12">
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A155" s="3">
+      <c r="A155" s="7">
         <v>154</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155" s="8">
         <v>44377</v>
       </c>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="8"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="12">
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A156" s="3">
+      <c r="A156" s="7">
         <v>155</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156" s="8">
         <v>44378</v>
       </c>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="12">
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A157" s="3">
+      <c r="A157" s="7">
         <v>156</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157" s="8">
         <v>44379</v>
       </c>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="8"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
-      <c r="I157" s="12">
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="9"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A158" s="3">
+      <c r="A158" s="7">
         <v>157</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158" s="8">
         <v>44380</v>
       </c>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
-      <c r="I158" s="12">
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="9"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A159" s="3">
+      <c r="A159" s="7">
         <v>158</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159" s="8">
         <v>44381</v>
       </c>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="8"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
-      <c r="I159" s="12">
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="9"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A160" s="3">
+      <c r="A160" s="7">
         <v>159</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160" s="8">
         <v>44382</v>
       </c>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="12">
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A161" s="3">
+      <c r="A161" s="7">
         <v>160</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161" s="8">
         <v>44383</v>
       </c>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
-      <c r="I161" s="12">
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A162" s="3">
+      <c r="A162" s="7">
         <v>161</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162" s="8">
         <v>44384</v>
       </c>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="12">
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A163" s="3">
+      <c r="A163" s="7">
         <v>162</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163" s="8">
         <v>44385</v>
       </c>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="8"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="12">
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A164" s="3">
+      <c r="A164" s="7">
         <v>163</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164" s="8">
         <v>44386</v>
       </c>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="12">
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A165" s="3">
+      <c r="A165" s="7">
         <v>164</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165" s="8">
         <v>44387</v>
       </c>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="8"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="12">
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A166" s="3">
+      <c r="A166" s="7">
         <v>165</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166" s="8">
         <v>44388</v>
       </c>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="12">
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A167" s="3">
+      <c r="A167" s="7">
         <v>166</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167" s="8">
         <v>44389</v>
       </c>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="12">
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A168" s="3">
+      <c r="A168" s="7">
         <v>167</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168" s="8">
         <v>44390</v>
       </c>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="12">
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A169" s="3">
+      <c r="A169" s="7">
         <v>168</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169" s="8">
         <v>44391</v>
       </c>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="12">
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A170" s="3">
+      <c r="A170" s="7">
         <v>169</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170" s="8">
         <v>44392</v>
       </c>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="12">
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A171" s="3">
+      <c r="A171" s="7">
         <v>170</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171" s="8">
         <v>44393</v>
       </c>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="12">
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A172" s="3">
+      <c r="A172" s="7">
         <v>171</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172" s="8">
         <v>44394</v>
       </c>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="8"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="12">
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4145,7 +4137,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4156,7 +4148,7 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4167,7 +4159,7 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4178,7 +4170,7 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4189,7 +4181,7 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4200,7 +4192,7 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4211,7 +4203,7 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4222,7 +4214,7 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4233,7 +4225,7 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4244,7 +4236,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4255,7 +4247,7 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1727,7 +1727,9 @@
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="E41" s="9">
+        <v>3</v>
+      </c>
       <c r="F41" s="10">
         <v>1</v>
       </c>
@@ -1735,7 +1737,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1727,9 +1727,7 @@
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="9">
-        <v>3</v>
-      </c>
+      <c r="E41" s="9"/>
       <c r="F41" s="10">
         <v>1</v>
       </c>
@@ -1737,7 +1735,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -1749,13 +1747,17 @@
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10"/>
+      <c r="E42" s="9">
+        <v>3</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="I42" si="1">SUM(C42:H42)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -2204,7 +2206,7 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9">
-        <f t="shared" ref="I67:I130" si="1">SUM(C67:H67)</f>
+        <f t="shared" ref="I67:I130" si="2">SUM(C67:H67)</f>
         <v>0</v>
       </c>
     </row>
@@ -2222,7 +2224,7 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2240,7 +2242,7 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2258,7 +2260,7 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2276,7 +2278,7 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2294,7 +2296,7 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2312,7 +2314,7 @@
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2330,7 +2332,7 @@
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2348,7 +2350,7 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2366,7 +2368,7 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2384,7 +2386,7 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2402,7 +2404,7 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2420,7 +2422,7 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2438,7 +2440,7 @@
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2456,7 +2458,7 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2474,7 +2476,7 @@
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2492,7 +2494,7 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2510,7 +2512,7 @@
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2528,7 +2530,7 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2546,7 +2548,7 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2564,7 +2566,7 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2582,7 +2584,7 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2600,7 +2602,7 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2618,7 +2620,7 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2636,7 +2638,7 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2654,7 +2656,7 @@
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2672,7 +2674,7 @@
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2690,7 +2692,7 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2708,7 +2710,7 @@
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2726,7 +2728,7 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2744,7 +2746,7 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2762,7 +2764,7 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2780,7 +2782,7 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2798,7 +2800,7 @@
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2816,7 +2818,7 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2834,7 +2836,7 @@
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +2854,7 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2870,7 +2872,7 @@
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2888,7 +2890,7 @@
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2906,7 +2908,7 @@
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2924,7 +2926,7 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2942,7 +2944,7 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2960,7 +2962,7 @@
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2978,7 +2980,7 @@
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2996,7 +2998,7 @@
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3014,7 +3016,7 @@
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3032,7 +3034,7 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3050,7 +3052,7 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3068,7 +3070,7 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3086,7 +3088,7 @@
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3104,7 +3106,7 @@
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3122,7 +3124,7 @@
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3140,7 +3142,7 @@
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3158,7 +3160,7 @@
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3176,7 +3178,7 @@
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3194,7 +3196,7 @@
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3212,7 +3214,7 @@
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3230,7 +3232,7 @@
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3248,7 +3250,7 @@
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3266,7 +3268,7 @@
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
       <c r="I126" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3284,7 +3286,7 @@
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="I127" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3302,7 +3304,7 @@
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3320,7 +3322,7 @@
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3338,7 +3340,7 @@
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3356,7 +3358,7 @@
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9">
-        <f t="shared" ref="I131:I172" si="2">SUM(C131:H131)</f>
+        <f t="shared" ref="I131:I172" si="3">SUM(C131:H131)</f>
         <v>0</v>
       </c>
     </row>
@@ -3374,7 +3376,7 @@
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3392,7 +3394,7 @@
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
       <c r="I133" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3410,7 +3412,7 @@
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
       <c r="I134" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3428,7 +3430,7 @@
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3446,7 +3448,7 @@
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3464,7 +3466,7 @@
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3482,7 +3484,7 @@
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3500,7 +3502,7 @@
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
       <c r="I139" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3518,7 +3520,7 @@
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3536,7 +3538,7 @@
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3554,7 +3556,7 @@
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="I142" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3572,7 +3574,7 @@
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
       <c r="I143" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3590,7 +3592,7 @@
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3608,7 +3610,7 @@
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
       <c r="I145" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3626,7 +3628,7 @@
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
       <c r="I146" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3644,7 +3646,7 @@
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
       <c r="I147" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3662,7 +3664,7 @@
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3680,7 +3682,7 @@
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
       <c r="I149" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3698,7 +3700,7 @@
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
       <c r="I150" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3716,7 +3718,7 @@
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
       <c r="I151" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3734,7 +3736,7 @@
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
       <c r="I152" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3752,7 +3754,7 @@
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
       <c r="I153" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3770,7 +3772,7 @@
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
       <c r="I154" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3788,7 +3790,7 @@
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
       <c r="I155" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3806,7 +3808,7 @@
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3824,7 +3826,7 @@
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
       <c r="I157" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3842,7 +3844,7 @@
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
       <c r="I158" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3860,7 +3862,7 @@
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
       <c r="I159" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3878,7 +3880,7 @@
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="I160" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3896,7 +3898,7 @@
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
       <c r="I161" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3914,7 +3916,7 @@
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
       <c r="I162" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3932,7 +3934,7 @@
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
       <c r="I163" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3950,7 +3952,7 @@
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
       <c r="I164" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3968,7 +3970,7 @@
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
       <c r="I165" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3986,7 +3988,7 @@
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
       <c r="I166" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4004,7 +4006,7 @@
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
       <c r="I167" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4022,7 +4024,7 @@
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
       <c r="I168" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4040,7 +4042,7 @@
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
       <c r="I169" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4058,7 +4060,7 @@
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
       <c r="I170" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4076,7 +4078,7 @@
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
       <c r="I171" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4094,7 +4096,7 @@
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
       <c r="I172" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1769,13 +1769,15 @@
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="E43" s="9">
+        <v>0.5</v>
+      </c>
       <c r="F43" s="10"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -1786,14 +1788,18 @@
         <v>44266</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="D44" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="9">
+        <v>1.5</v>
+      </c>
       <c r="F44" s="10"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -538,7 +538,7 @@
   <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1864,14 +1864,16 @@
         <v>44270</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="D48" s="9">
+        <v>1</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="10"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -1882,14 +1884,16 @@
         <v>44271</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="D49" s="9">
+        <v>1</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="10"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -178,7 +178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,17 +219,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -548,7 +548,7 @@
     <col min="3" max="3" width="15.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -569,7 +569,7 @@
       <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="9" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -583,3529 +583,3531 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>44224</v>
       </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
         <v>1.5</v>
       </c>
       <c r="F2" s="10">
         <v>0</v>
       </c>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
-      <c r="I2" s="9">
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
         <f>SUM(C2:H2)</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>44225</v>
       </c>
-      <c r="C3" s="9">
-        <v>0</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <v>1</v>
       </c>
       <c r="F3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
         <f t="shared" ref="I3:I66" si="0">SUM(C3:H3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>44226</v>
       </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
         <v>0</v>
       </c>
       <c r="F4" s="10">
         <v>0</v>
       </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>44227</v>
       </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
         <v>0</v>
       </c>
       <c r="F5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>44228</v>
       </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
         <v>1</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>44229</v>
       </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>1.5</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <f>SUM(C7:H7)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>44230</v>
       </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
         <v>0.5</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>1</v>
       </c>
       <c r="F8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>44231</v>
       </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
         <v>0.5</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <v>0.5</v>
       </c>
       <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>44232</v>
       </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
         <v>0</v>
       </c>
       <c r="F10" s="10">
         <v>0</v>
       </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>44233</v>
       </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
         <v>0</v>
       </c>
       <c r="F11" s="10">
         <v>0</v>
       </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0</v>
-      </c>
-      <c r="I11" s="9">
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>44234</v>
       </c>
-      <c r="C12" s="9">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
         <v>0</v>
       </c>
       <c r="F12" s="10">
         <v>0</v>
       </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>44235</v>
       </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
         <v>0</v>
       </c>
       <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>44236</v>
       </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
         <v>0</v>
       </c>
       <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>44237</v>
       </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
         <v>0</v>
       </c>
       <c r="F15" s="10">
         <v>0</v>
       </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>44238</v>
       </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
         <v>0</v>
       </c>
       <c r="F16" s="10">
         <v>0</v>
       </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>44239</v>
       </c>
-      <c r="C17" s="9">
-        <v>0</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
         <v>0</v>
       </c>
       <c r="F17" s="10">
         <v>0</v>
       </c>
-      <c r="G17" s="9">
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>44240</v>
       </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
         <v>0</v>
       </c>
       <c r="F18" s="10">
         <v>0</v>
       </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>44241</v>
       </c>
-      <c r="C19" s="9">
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9">
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
         <v>0</v>
       </c>
       <c r="F19" s="10">
         <v>0</v>
       </c>
-      <c r="G19" s="9">
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0</v>
-      </c>
-      <c r="I19" s="9">
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>44242</v>
       </c>
-      <c r="C20" s="9">
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
         <v>0</v>
       </c>
       <c r="F20" s="10">
         <v>0</v>
       </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0</v>
-      </c>
-      <c r="I20" s="9">
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <v>44243</v>
       </c>
-      <c r="C21" s="9">
-        <v>0</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
         <v>0</v>
       </c>
       <c r="F21" s="10">
         <v>0</v>
       </c>
-      <c r="G21" s="9">
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0</v>
-      </c>
-      <c r="I21" s="9">
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>44244</v>
       </c>
-      <c r="C22" s="9">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
         <v>0</v>
       </c>
       <c r="F22" s="10">
         <v>0</v>
       </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9">
-        <v>0</v>
-      </c>
-      <c r="I22" s="9">
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="7">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="6">
         <v>44245</v>
       </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
         <v>0.5</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <v>0</v>
       </c>
       <c r="F23" s="10">
         <v>0</v>
       </c>
-      <c r="G23" s="9">
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="6">
         <v>44246</v>
       </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
         <v>0.5</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <v>0</v>
       </c>
       <c r="F24" s="10">
         <v>0</v>
       </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9">
-        <v>0</v>
-      </c>
-      <c r="I24" s="9">
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="6">
         <v>44247</v>
       </c>
-      <c r="C25" s="9">
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
         <v>0.5</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <v>0</v>
       </c>
       <c r="F25" s="10">
         <v>0</v>
       </c>
-      <c r="G25" s="9">
-        <v>0</v>
-      </c>
-      <c r="H25" s="9">
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="7">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="6">
         <v>44248</v>
       </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7">
         <v>0</v>
       </c>
       <c r="F26" s="10">
         <v>0</v>
       </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9">
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <v>44249</v>
       </c>
-      <c r="C27" s="9">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="11">
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
         <v>1.5</v>
       </c>
       <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0</v>
-      </c>
-      <c r="I27" s="9">
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="6">
         <v>44250</v>
       </c>
-      <c r="C28" s="9">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="7">
         <v>0</v>
       </c>
       <c r="F28" s="10">
         <v>0</v>
       </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="9">
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B29" s="6">
         <v>44251</v>
       </c>
-      <c r="C29" s="9">
-        <v>0</v>
-      </c>
-      <c r="D29" s="9">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
         <v>0</v>
       </c>
       <c r="F29" s="10">
         <v>0</v>
       </c>
-      <c r="G29" s="9">
-        <v>0</v>
-      </c>
-      <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9">
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="6">
         <v>44252</v>
       </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
         <v>0</v>
       </c>
       <c r="F30" s="10">
         <v>0</v>
       </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9">
-        <v>0</v>
-      </c>
-      <c r="I30" s="9">
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="6">
         <v>44253</v>
       </c>
-      <c r="C31" s="9">
-        <v>0</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0</v>
-      </c>
-      <c r="E31" s="9">
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
         <v>0.5</v>
       </c>
       <c r="F31" s="10">
         <v>0.5</v>
       </c>
-      <c r="G31" s="9">
-        <v>0</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0</v>
-      </c>
-      <c r="I31" s="9">
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="6">
         <v>44254</v>
       </c>
-      <c r="C32" s="9">
-        <v>0</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
         <v>0</v>
       </c>
       <c r="F32" s="10">
         <v>0</v>
       </c>
-      <c r="G32" s="9">
-        <v>0</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0</v>
-      </c>
-      <c r="I32" s="9">
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="6">
         <v>44255</v>
       </c>
-      <c r="C33" s="9">
-        <v>0</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9">
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
         <v>0</v>
       </c>
       <c r="F33" s="10">
         <v>0</v>
       </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9">
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="6">
         <v>44256</v>
       </c>
-      <c r="C34" s="9">
-        <v>0</v>
-      </c>
-      <c r="D34" s="9">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9">
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
         <v>2</v>
       </c>
       <c r="F34" s="10">
         <v>0</v>
       </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0</v>
-      </c>
-      <c r="I34" s="9">
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="7">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="8">
+      <c r="B35" s="6">
         <v>44257</v>
       </c>
-      <c r="C35" s="9">
-        <v>0</v>
-      </c>
-      <c r="D35" s="9">
+      <c r="C35" s="7">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
         <v>1</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="7">
         <v>3</v>
       </c>
       <c r="F35" s="10">
         <v>0</v>
       </c>
-      <c r="G35" s="9">
-        <v>0</v>
-      </c>
-      <c r="H35" s="9">
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
         <v>1</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I35" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="7">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="6">
         <v>44258</v>
       </c>
-      <c r="C36" s="9">
-        <v>0</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
         <v>1</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <v>0</v>
       </c>
       <c r="F36" s="10">
         <v>0</v>
       </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
-        <v>0</v>
-      </c>
-      <c r="I36" s="9">
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B37" s="6">
         <v>44259</v>
       </c>
-      <c r="C37" s="9">
-        <v>0</v>
-      </c>
-      <c r="D37" s="9">
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
         <v>0.5</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="7">
         <v>0</v>
       </c>
       <c r="F37" s="10">
         <v>1</v>
       </c>
-      <c r="G37" s="9">
-        <v>0</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9">
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="7">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B38" s="6">
         <v>44260</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="10">
         <v>1</v>
       </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9">
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="7">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="8">
+      <c r="B39" s="6">
         <v>44261</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9">
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="6">
         <v>44262</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="10"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9">
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="6">
         <v>44263</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="10">
         <v>1</v>
       </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9">
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="8">
+      <c r="B42" s="6">
         <v>44264</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7">
         <v>3</v>
       </c>
       <c r="F42" s="10">
         <v>1</v>
       </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9">
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7">
         <f t="shared" ref="I42" si="1">SUM(C42:H42)</f>
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="7">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B43" s="6">
         <v>44265</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7">
         <v>0.5</v>
       </c>
       <c r="F43" s="10"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9">
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="8">
+      <c r="B44" s="6">
         <v>44266</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7">
         <v>0.5</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="7">
         <v>1.5</v>
       </c>
       <c r="F44" s="10"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9">
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A45" s="7">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="6">
         <v>44267</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
       <c r="F45" s="10"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9">
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="6">
         <v>44268</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="10"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9">
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="6">
         <v>44269</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
       <c r="F47" s="10"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9">
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="6">
         <v>44270</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7">
         <v>1</v>
       </c>
-      <c r="E48" s="9"/>
+      <c r="E48" s="7"/>
       <c r="F48" s="10"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9">
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="6">
         <v>44271</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7">
         <v>1</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="7"/>
       <c r="F49" s="10"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9">
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A50" s="7">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="8">
+      <c r="B50" s="6">
         <v>44272</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+      <c r="E50" s="7"/>
       <c r="F50" s="10"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A51" s="7">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="6">
         <v>44273</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
       <c r="F51" s="10"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9">
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="7">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="8">
+      <c r="B52" s="6">
         <v>44274</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9">
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A53" s="7">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="8">
+      <c r="B53" s="6">
         <v>44275</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
       <c r="F53" s="10"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9">
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A54" s="7">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B54" s="6">
         <v>44276</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
       <c r="F54" s="10"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9">
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A55" s="7">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B55" s="6">
         <v>44277</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
       <c r="F55" s="10"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9">
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A56" s="7">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="8">
+      <c r="B56" s="6">
         <v>44278</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9">
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A57" s="7">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="6">
         <v>44279</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
       <c r="F57" s="10"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9">
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A58" s="7">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="8">
+      <c r="B58" s="6">
         <v>44280</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
       <c r="F58" s="10"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9">
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A59" s="7">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="8">
+      <c r="B59" s="6">
         <v>44281</v>
       </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
       <c r="F59" s="10"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9">
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A60" s="7">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="8">
+      <c r="B60" s="6">
         <v>44282</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
       <c r="F60" s="10"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9">
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A61" s="7">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="8">
+      <c r="B61" s="6">
         <v>44283</v>
       </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9">
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A62" s="7">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="8">
+      <c r="B62" s="6">
         <v>44284</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
       <c r="F62" s="10"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9">
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A63" s="7">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="8">
+      <c r="B63" s="6">
         <v>44285</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9">
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A64" s="7">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="8">
+      <c r="B64" s="6">
         <v>44286</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
       <c r="F64" s="10"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9">
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A65" s="7">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="8">
+      <c r="B65" s="6">
         <v>44287</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
       <c r="F65" s="10"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9">
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A66" s="7">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="8">
+      <c r="B66" s="6">
         <v>44288</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
       <c r="F66" s="10"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9">
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A67" s="7">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="8">
+      <c r="B67" s="6">
         <v>44289</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
       <c r="F67" s="10"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9">
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7">
         <f t="shared" ref="I67:I130" si="2">SUM(C67:H67)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A68" s="7">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="6">
         <v>44290</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
       <c r="F68" s="10"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9">
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A69" s="7">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="6">
         <v>44291</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
       <c r="F69" s="10"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9">
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A70" s="7">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="8">
+      <c r="B70" s="6">
         <v>44292</v>
       </c>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
       <c r="F70" s="10"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9">
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A71" s="7">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="8">
+      <c r="B71" s="6">
         <v>44293</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
       <c r="F71" s="10"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9">
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A72" s="7">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="8">
+      <c r="B72" s="6">
         <v>44294</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9">
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A73" s="7">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
-      <c r="B73" s="8">
+      <c r="B73" s="6">
         <v>44295</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
       <c r="F73" s="10"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9">
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A74" s="7">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="8">
+      <c r="B74" s="6">
         <v>44296</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
       <c r="F74" s="10"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9">
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A75" s="7">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="8">
+      <c r="B75" s="6">
         <v>44297</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
       <c r="F75" s="10"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9">
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A76" s="7">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="8">
+      <c r="B76" s="6">
         <v>44298</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
       <c r="F76" s="10"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9">
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A77" s="7">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
-      <c r="B77" s="8">
+      <c r="B77" s="6">
         <v>44299</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
       <c r="F77" s="10"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9">
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A78" s="7">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
-      <c r="B78" s="8">
+      <c r="B78" s="6">
         <v>44300</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
       <c r="F78" s="10"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9">
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A79" s="7">
+      <c r="A79" s="5">
         <v>78</v>
       </c>
-      <c r="B79" s="8">
+      <c r="B79" s="6">
         <v>44301</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
       <c r="F79" s="10"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9">
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A80" s="7">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="6">
         <v>44302</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
       <c r="F80" s="10"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9">
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A81" s="7">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="6">
         <v>44303</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
       <c r="F81" s="10"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9">
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A82" s="7">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="6">
         <v>44304</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
       <c r="F82" s="10"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9">
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A83" s="7">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="6">
         <v>44305</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
       <c r="F83" s="10"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9">
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A84" s="7">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="6">
         <v>44306</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
       <c r="F84" s="10"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9">
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A85" s="7">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="6">
         <v>44307</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
       <c r="F85" s="10"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9">
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A86" s="7">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="6">
         <v>44308</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
       <c r="F86" s="10"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9">
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A87" s="7">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="6">
         <v>44309</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
       <c r="F87" s="10"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9">
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A88" s="7">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="6">
         <v>44310</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
       <c r="F88" s="10"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9">
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A89" s="7">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="6">
         <v>44311</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
       <c r="F89" s="10"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9">
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A90" s="7">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="6">
         <v>44312</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
       <c r="F90" s="10"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9">
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A91" s="7">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="6">
         <v>44313</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
       <c r="F91" s="10"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9">
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A92" s="7">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="6">
         <v>44314</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
       <c r="F92" s="10"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9">
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A93" s="7">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="8">
+      <c r="B93" s="6">
         <v>44315</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
       <c r="F93" s="10"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9">
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A94" s="7">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="8">
+      <c r="B94" s="6">
         <v>44316</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
       <c r="F94" s="10"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9">
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A95" s="7">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="8">
+      <c r="B95" s="6">
         <v>44317</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
       <c r="F95" s="10"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9">
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A96" s="7">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="6">
         <v>44318</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
       <c r="F96" s="10"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9">
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A97" s="7">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="8">
+      <c r="B97" s="6">
         <v>44319</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
       <c r="F97" s="10"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9">
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A98" s="7">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="8">
+      <c r="B98" s="6">
         <v>44320</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
       <c r="F98" s="10"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9">
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A99" s="7">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="8">
+      <c r="B99" s="6">
         <v>44321</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
       <c r="F99" s="10"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9">
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A100" s="7">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="8">
+      <c r="B100" s="6">
         <v>44322</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
       <c r="F100" s="10"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9">
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A101" s="7">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="8">
+      <c r="B101" s="6">
         <v>44323</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
       <c r="F101" s="10"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9">
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A102" s="7">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
-      <c r="B102" s="8">
+      <c r="B102" s="6">
         <v>44324</v>
       </c>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
       <c r="F102" s="10"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9">
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A103" s="7">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
-      <c r="B103" s="8">
+      <c r="B103" s="6">
         <v>44325</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
       <c r="F103" s="10"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9">
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A104" s="7">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
-      <c r="B104" s="8">
+      <c r="B104" s="6">
         <v>44326</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
       <c r="F104" s="10"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9">
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A105" s="7">
+      <c r="A105" s="5">
         <v>104</v>
       </c>
-      <c r="B105" s="8">
+      <c r="B105" s="6">
         <v>44327</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
       <c r="F105" s="10"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9">
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A106" s="7">
+      <c r="A106" s="5">
         <v>105</v>
       </c>
-      <c r="B106" s="8">
+      <c r="B106" s="6">
         <v>44328</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
       <c r="F106" s="10"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9">
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A107" s="7">
+      <c r="A107" s="5">
         <v>106</v>
       </c>
-      <c r="B107" s="8">
+      <c r="B107" s="6">
         <v>44329</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
       <c r="F107" s="10"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9">
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A108" s="7">
+      <c r="A108" s="5">
         <v>107</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B108" s="6">
         <v>44330</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
       <c r="F108" s="10"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="I108" s="9">
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A109" s="7">
+      <c r="A109" s="5">
         <v>108</v>
       </c>
-      <c r="B109" s="8">
+      <c r="B109" s="6">
         <v>44331</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
       <c r="F109" s="10"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="I109" s="9">
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A110" s="7">
+      <c r="A110" s="5">
         <v>109</v>
       </c>
-      <c r="B110" s="8">
+      <c r="B110" s="6">
         <v>44332</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
       <c r="F110" s="10"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9">
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A111" s="7">
+      <c r="A111" s="5">
         <v>110</v>
       </c>
-      <c r="B111" s="8">
+      <c r="B111" s="6">
         <v>44333</v>
       </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
       <c r="F111" s="10"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9">
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A112" s="7">
+      <c r="A112" s="5">
         <v>111</v>
       </c>
-      <c r="B112" s="8">
+      <c r="B112" s="6">
         <v>44334</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
       <c r="F112" s="10"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9">
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A113" s="7">
+      <c r="A113" s="5">
         <v>112</v>
       </c>
-      <c r="B113" s="8">
+      <c r="B113" s="6">
         <v>44335</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
       <c r="F113" s="10"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9">
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A114" s="7">
+      <c r="A114" s="5">
         <v>113</v>
       </c>
-      <c r="B114" s="8">
+      <c r="B114" s="6">
         <v>44336</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
       <c r="F114" s="10"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9">
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A115" s="7">
+      <c r="A115" s="5">
         <v>114</v>
       </c>
-      <c r="B115" s="8">
+      <c r="B115" s="6">
         <v>44337</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
       <c r="F115" s="10"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="I115" s="9">
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A116" s="7">
+      <c r="A116" s="5">
         <v>115</v>
       </c>
-      <c r="B116" s="8">
+      <c r="B116" s="6">
         <v>44338</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
       <c r="F116" s="10"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9">
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A117" s="7">
+      <c r="A117" s="5">
         <v>116</v>
       </c>
-      <c r="B117" s="8">
+      <c r="B117" s="6">
         <v>44339</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
       <c r="F117" s="10"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="I117" s="9">
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A118" s="7">
+      <c r="A118" s="5">
         <v>117</v>
       </c>
-      <c r="B118" s="8">
+      <c r="B118" s="6">
         <v>44340</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
       <c r="F118" s="10"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9">
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A119" s="7">
+      <c r="A119" s="5">
         <v>118</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B119" s="6">
         <v>44341</v>
       </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="9"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
       <c r="F119" s="10"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="I119" s="9">
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A120" s="7">
+      <c r="A120" s="5">
         <v>119</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B120" s="6">
         <v>44342</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
       <c r="F120" s="10"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="I120" s="9">
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A121" s="7">
+      <c r="A121" s="5">
         <v>120</v>
       </c>
-      <c r="B121" s="8">
+      <c r="B121" s="6">
         <v>44343</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
       <c r="F121" s="10"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="I121" s="9">
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A122" s="7">
+      <c r="A122" s="5">
         <v>121</v>
       </c>
-      <c r="B122" s="8">
+      <c r="B122" s="6">
         <v>44344</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
       <c r="F122" s="10"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="I122" s="9">
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A123" s="7">
+      <c r="A123" s="5">
         <v>122</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B123" s="6">
         <v>44345</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
       <c r="F123" s="10"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="I123" s="9">
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A124" s="7">
+      <c r="A124" s="5">
         <v>123</v>
       </c>
-      <c r="B124" s="8">
+      <c r="B124" s="6">
         <v>44346</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
       <c r="F124" s="10"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9">
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A125" s="7">
+      <c r="A125" s="5">
         <v>124</v>
       </c>
-      <c r="B125" s="8">
+      <c r="B125" s="6">
         <v>44347</v>
       </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
       <c r="F125" s="10"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="9">
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A126" s="7">
+      <c r="A126" s="5">
         <v>125</v>
       </c>
-      <c r="B126" s="8">
+      <c r="B126" s="6">
         <v>44348</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
       <c r="F126" s="10"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="9">
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A127" s="7">
+      <c r="A127" s="5">
         <v>126</v>
       </c>
-      <c r="B127" s="8">
+      <c r="B127" s="6">
         <v>44349</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
       <c r="F127" s="10"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="9">
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A128" s="7">
+      <c r="A128" s="5">
         <v>127</v>
       </c>
-      <c r="B128" s="8">
+      <c r="B128" s="6">
         <v>44350</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
       <c r="F128" s="10"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9">
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A129" s="7">
+      <c r="A129" s="5">
         <v>128</v>
       </c>
-      <c r="B129" s="8">
+      <c r="B129" s="6">
         <v>44351</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
       <c r="F129" s="10"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9">
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A130" s="7">
+      <c r="A130" s="5">
         <v>129</v>
       </c>
-      <c r="B130" s="8">
+      <c r="B130" s="6">
         <v>44352</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
       <c r="F130" s="10"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="9">
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A131" s="7">
+      <c r="A131" s="5">
         <v>130</v>
       </c>
-      <c r="B131" s="8">
+      <c r="B131" s="6">
         <v>44353</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
       <c r="F131" s="10"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9">
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="7">
         <f t="shared" ref="I131:I172" si="3">SUM(C131:H131)</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A132" s="7">
+      <c r="A132" s="5">
         <v>131</v>
       </c>
-      <c r="B132" s="8">
+      <c r="B132" s="6">
         <v>44354</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
       <c r="F132" s="10"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9">
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A133" s="7">
+      <c r="A133" s="5">
         <v>132</v>
       </c>
-      <c r="B133" s="8">
+      <c r="B133" s="6">
         <v>44355</v>
       </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
       <c r="F133" s="10"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9">
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A134" s="7">
+      <c r="A134" s="5">
         <v>133</v>
       </c>
-      <c r="B134" s="8">
+      <c r="B134" s="6">
         <v>44356</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
       <c r="F134" s="10"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9">
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A135" s="7">
+      <c r="A135" s="5">
         <v>134</v>
       </c>
-      <c r="B135" s="8">
+      <c r="B135" s="6">
         <v>44357</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
       <c r="F135" s="10"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="9">
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A136" s="7">
+      <c r="A136" s="5">
         <v>135</v>
       </c>
-      <c r="B136" s="8">
+      <c r="B136" s="6">
         <v>44358</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
       <c r="F136" s="10"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="9">
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A137" s="7">
+      <c r="A137" s="5">
         <v>136</v>
       </c>
-      <c r="B137" s="8">
+      <c r="B137" s="6">
         <v>44359</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
       <c r="F137" s="10"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9">
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A138" s="7">
+      <c r="A138" s="5">
         <v>137</v>
       </c>
-      <c r="B138" s="8">
+      <c r="B138" s="6">
         <v>44360</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
       <c r="F138" s="10"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="9">
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A139" s="7">
+      <c r="A139" s="5">
         <v>138</v>
       </c>
-      <c r="B139" s="8">
+      <c r="B139" s="6">
         <v>44361</v>
       </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
       <c r="F139" s="10"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9">
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A140" s="7">
+      <c r="A140" s="5">
         <v>139</v>
       </c>
-      <c r="B140" s="8">
+      <c r="B140" s="6">
         <v>44362</v>
       </c>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
       <c r="F140" s="10"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="9">
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A141" s="7">
+      <c r="A141" s="5">
         <v>140</v>
       </c>
-      <c r="B141" s="8">
+      <c r="B141" s="6">
         <v>44363</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
       <c r="F141" s="10"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9">
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A142" s="7">
+      <c r="A142" s="5">
         <v>141</v>
       </c>
-      <c r="B142" s="8">
+      <c r="B142" s="6">
         <v>44364</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
       <c r="F142" s="10"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9">
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A143" s="7">
+      <c r="A143" s="5">
         <v>142</v>
       </c>
-      <c r="B143" s="8">
+      <c r="B143" s="6">
         <v>44365</v>
       </c>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
       <c r="F143" s="10"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="9">
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A144" s="7">
+      <c r="A144" s="5">
         <v>143</v>
       </c>
-      <c r="B144" s="8">
+      <c r="B144" s="6">
         <v>44366</v>
       </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
       <c r="F144" s="10"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9">
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A145" s="7">
+      <c r="A145" s="5">
         <v>144</v>
       </c>
-      <c r="B145" s="8">
+      <c r="B145" s="6">
         <v>44367</v>
       </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
       <c r="F145" s="10"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9">
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A146" s="7">
+      <c r="A146" s="5">
         <v>145</v>
       </c>
-      <c r="B146" s="8">
+      <c r="B146" s="6">
         <v>44368</v>
       </c>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
       <c r="F146" s="10"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="I146" s="9">
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A147" s="7">
+      <c r="A147" s="5">
         <v>146</v>
       </c>
-      <c r="B147" s="8">
+      <c r="B147" s="6">
         <v>44369</v>
       </c>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
       <c r="F147" s="10"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="I147" s="9">
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A148" s="7">
+      <c r="A148" s="5">
         <v>147</v>
       </c>
-      <c r="B148" s="8">
+      <c r="B148" s="6">
         <v>44370</v>
       </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="9"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
       <c r="F148" s="10"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
-      <c r="I148" s="9">
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A149" s="7">
+      <c r="A149" s="5">
         <v>148</v>
       </c>
-      <c r="B149" s="8">
+      <c r="B149" s="6">
         <v>44371</v>
       </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
       <c r="F149" s="10"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9">
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A150" s="7">
+      <c r="A150" s="5">
         <v>149</v>
       </c>
-      <c r="B150" s="8">
+      <c r="B150" s="6">
         <v>44372</v>
       </c>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="9"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
       <c r="F150" s="10"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="9">
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A151" s="7">
+      <c r="A151" s="5">
         <v>150</v>
       </c>
-      <c r="B151" s="8">
+      <c r="B151" s="6">
         <v>44373</v>
       </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="9"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
       <c r="F151" s="10"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-      <c r="I151" s="9">
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A152" s="7">
+      <c r="A152" s="5">
         <v>151</v>
       </c>
-      <c r="B152" s="8">
+      <c r="B152" s="6">
         <v>44374</v>
       </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="9"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
       <c r="F152" s="10"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="I152" s="9">
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A153" s="7">
+      <c r="A153" s="5">
         <v>152</v>
       </c>
-      <c r="B153" s="8">
+      <c r="B153" s="6">
         <v>44375</v>
       </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="9"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
       <c r="F153" s="10"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
-      <c r="I153" s="9">
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A154" s="7">
+      <c r="A154" s="5">
         <v>153</v>
       </c>
-      <c r="B154" s="8">
+      <c r="B154" s="6">
         <v>44376</v>
       </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="9"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
       <c r="F154" s="10"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="I154" s="9">
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A155" s="7">
+      <c r="A155" s="5">
         <v>154</v>
       </c>
-      <c r="B155" s="8">
+      <c r="B155" s="6">
         <v>44377</v>
       </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="7"/>
       <c r="F155" s="10"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
-      <c r="I155" s="9">
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A156" s="7">
+      <c r="A156" s="5">
         <v>155</v>
       </c>
-      <c r="B156" s="8">
+      <c r="B156" s="6">
         <v>44378</v>
       </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="9"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="7"/>
       <c r="F156" s="10"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
-      <c r="I156" s="9">
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A157" s="7">
+      <c r="A157" s="5">
         <v>156</v>
       </c>
-      <c r="B157" s="8">
+      <c r="B157" s="6">
         <v>44379</v>
       </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="9"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="7"/>
       <c r="F157" s="10"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
-      <c r="I157" s="9">
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A158" s="7">
+      <c r="A158" s="5">
         <v>157</v>
       </c>
-      <c r="B158" s="8">
+      <c r="B158" s="6">
         <v>44380</v>
       </c>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
       <c r="F158" s="10"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
-      <c r="I158" s="9">
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A159" s="7">
+      <c r="A159" s="5">
         <v>158</v>
       </c>
-      <c r="B159" s="8">
+      <c r="B159" s="6">
         <v>44381</v>
       </c>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
-      <c r="E159" s="9"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
       <c r="F159" s="10"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
-      <c r="I159" s="9">
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A160" s="7">
+      <c r="A160" s="5">
         <v>159</v>
       </c>
-      <c r="B160" s="8">
+      <c r="B160" s="6">
         <v>44382</v>
       </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="9"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
       <c r="F160" s="10"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
-      <c r="I160" s="9">
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A161" s="7">
+      <c r="A161" s="5">
         <v>160</v>
       </c>
-      <c r="B161" s="8">
+      <c r="B161" s="6">
         <v>44383</v>
       </c>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
       <c r="F161" s="10"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
-      <c r="I161" s="9">
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A162" s="7">
+      <c r="A162" s="5">
         <v>161</v>
       </c>
-      <c r="B162" s="8">
+      <c r="B162" s="6">
         <v>44384</v>
       </c>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
       <c r="F162" s="10"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
-      <c r="I162" s="9">
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A163" s="7">
+      <c r="A163" s="5">
         <v>162</v>
       </c>
-      <c r="B163" s="8">
+      <c r="B163" s="6">
         <v>44385</v>
       </c>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="E163" s="9"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
       <c r="F163" s="10"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="I163" s="9">
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A164" s="7">
+      <c r="A164" s="5">
         <v>163</v>
       </c>
-      <c r="B164" s="8">
+      <c r="B164" s="6">
         <v>44386</v>
       </c>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
       <c r="F164" s="10"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
-      <c r="I164" s="9">
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A165" s="7">
+      <c r="A165" s="5">
         <v>164</v>
       </c>
-      <c r="B165" s="8">
+      <c r="B165" s="6">
         <v>44387</v>
       </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="7"/>
       <c r="F165" s="10"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="9"/>
-      <c r="I165" s="9">
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A166" s="7">
+      <c r="A166" s="5">
         <v>165</v>
       </c>
-      <c r="B166" s="8">
+      <c r="B166" s="6">
         <v>44388</v>
       </c>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="7"/>
       <c r="F166" s="10"/>
-      <c r="G166" s="9"/>
-      <c r="H166" s="9"/>
-      <c r="I166" s="9">
+      <c r="G166" s="7"/>
+      <c r="H166" s="7"/>
+      <c r="I166" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A167" s="7">
+      <c r="A167" s="5">
         <v>166</v>
       </c>
-      <c r="B167" s="8">
+      <c r="B167" s="6">
         <v>44389</v>
       </c>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="9"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
       <c r="F167" s="10"/>
-      <c r="G167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="I167" s="9">
+      <c r="G167" s="7"/>
+      <c r="H167" s="7"/>
+      <c r="I167" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A168" s="7">
+      <c r="A168" s="5">
         <v>167</v>
       </c>
-      <c r="B168" s="8">
+      <c r="B168" s="6">
         <v>44390</v>
       </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="7"/>
       <c r="F168" s="10"/>
-      <c r="G168" s="9"/>
-      <c r="H168" s="9"/>
-      <c r="I168" s="9">
+      <c r="G168" s="7"/>
+      <c r="H168" s="7"/>
+      <c r="I168" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A169" s="7">
+      <c r="A169" s="5">
         <v>168</v>
       </c>
-      <c r="B169" s="8">
+      <c r="B169" s="6">
         <v>44391</v>
       </c>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="7"/>
       <c r="F169" s="10"/>
-      <c r="G169" s="9"/>
-      <c r="H169" s="9"/>
-      <c r="I169" s="9">
+      <c r="G169" s="7"/>
+      <c r="H169" s="7"/>
+      <c r="I169" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A170" s="7">
+      <c r="A170" s="5">
         <v>169</v>
       </c>
-      <c r="B170" s="8">
+      <c r="B170" s="6">
         <v>44392</v>
       </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
       <c r="F170" s="10"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-      <c r="I170" s="9">
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
+      <c r="I170" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A171" s="7">
+      <c r="A171" s="5">
         <v>170</v>
       </c>
-      <c r="B171" s="8">
+      <c r="B171" s="6">
         <v>44393</v>
       </c>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7"/>
       <c r="F171" s="10"/>
-      <c r="G171" s="9"/>
-      <c r="H171" s="9"/>
-      <c r="I171" s="9">
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A172" s="7">
+      <c r="A172" s="5">
         <v>171</v>
       </c>
-      <c r="B172" s="8">
+      <c r="B172" s="6">
         <v>44394</v>
       </c>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="9"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="7"/>
       <c r="F172" s="10"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="9"/>
-      <c r="I172" s="9">
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1924,7 +1924,9 @@
         <v>44273</v>
       </c>
       <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
       <c r="E51" s="7"/>
       <c r="F51" s="10"/>
       <c r="G51" s="7"/>
@@ -1942,14 +1944,18 @@
         <v>44274</v>
       </c>
       <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="D52" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="7">
+        <v>2</v>
+      </c>
       <c r="F52" s="10"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2002,14 +2002,20 @@
         <v>44277</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="10"/>
+      <c r="D55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1</v>
+      </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -538,7 +538,7 @@
   <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2029,11 +2029,13 @@
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="10"/>
-      <c r="G56" s="7"/>
+      <c r="G56" s="7">
+        <v>0.5</v>
+      </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">

--- a/plan/DailyPlan.xlsx
+++ b/plan/DailyPlan.xlsx
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2046,14 +2046,18 @@
         <v>44279</v>
       </c>
       <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
+      <c r="D57" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="7">
+        <v>1</v>
+      </c>
       <c r="F57" s="10"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -2064,14 +2068,18 @@
         <v>44280</v>
       </c>
       <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="D58" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="7">
+        <v>1</v>
+      </c>
       <c r="F58" s="10"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -2082,14 +2090,18 @@
         <v>44281</v>
       </c>
       <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="D59" s="7">
+        <v>0.5</v>
+      </c>
       <c r="E59" s="7"/>
-      <c r="F59" s="10"/>
+      <c r="F59" s="10">
+        <v>0.5</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
